--- a/output/experiments/thesis_topic3/6h-bat-12months-0.6dc-shift-0.2.xlsx
+++ b/output/experiments/thesis_topic3/6h-bat-12months-0.6dc-shift-0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\thesis_topic3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Energy_grid_new\output\experiments\thesis_topic3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDECEA8-DF45-4469-80C3-63A73187A988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F62A7-965A-4A1F-B8D9-4A398922ACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,178 +22,181 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="146">
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>bld</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>B_kWh</t>
+  </si>
+  <si>
+    <t>pred_model</t>
+  </si>
+  <si>
+    <t>deg_model_opt</t>
+  </si>
+  <si>
+    <t>deg_model</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>month_of_year</t>
+  </si>
+  <si>
+    <t>p_grid_max</t>
+  </si>
+  <si>
+    <t>price_dc</t>
+  </si>
+  <si>
+    <t>price_sell</t>
+  </si>
+  <si>
+    <t>ev_charge_rule</t>
+  </si>
+  <si>
+    <t>disturbance_rule</t>
+  </si>
+  <si>
+    <t>disturbance_scale</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>shift_ratio</t>
+  </si>
+  <si>
+    <t>p_grid_max_method</t>
+  </si>
+  <si>
+    <t>TCO</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>save_fn</t>
+  </si>
+  <si>
+    <t>TCO_est</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>CAPEX_est</t>
+  </si>
+  <si>
+    <t>bat_capacity</t>
+  </si>
+  <si>
+    <t>eq_bat_capacity</t>
+  </si>
+  <si>
+    <t>eq_cycles</t>
+  </si>
+  <si>
+    <t>eq_cycles_est</t>
+  </si>
+  <si>
+    <t>eq_rate</t>
+  </si>
+  <si>
+    <t>eq_rate_est</t>
+  </si>
+  <si>
+    <t>eq_rate_opex</t>
+  </si>
+  <si>
+    <t>eq_rate_null</t>
+  </si>
+  <si>
+    <t>demand_charge</t>
+  </si>
+  <si>
+    <t>tou_cost</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>ev_I</t>
+  </si>
+  <si>
+    <t>load_bld</t>
+  </si>
+  <si>
+    <t>load_ev</t>
+  </si>
+  <si>
+    <t>load_tot</t>
+  </si>
+  <si>
+    <t>load_pv</t>
+  </si>
+  <si>
+    <t>grid_import</t>
+  </si>
+  <si>
+    <t>grid_export</t>
+  </si>
+  <si>
+    <t>import_cost</t>
+  </si>
+  <si>
+    <t>export_revenue</t>
+  </si>
+  <si>
+    <t>grid_max</t>
+  </si>
+  <si>
+    <t>bat_e_terminal</t>
+  </si>
+  <si>
+    <t>bat_e_terminal_revenue</t>
+  </si>
+  <si>
+    <t>load_bld_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_bld_error_max_pos</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_pos</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>bld</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>ev</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>B_kWh</t>
-  </si>
-  <si>
-    <t>pred_model</t>
-  </si>
-  <si>
-    <t>deg_model_opt</t>
-  </si>
-  <si>
-    <t>deg_model</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>month_of_year</t>
-  </si>
-  <si>
-    <t>p_grid_max</t>
-  </si>
-  <si>
-    <t>price_dc</t>
-  </si>
-  <si>
-    <t>price_sell</t>
-  </si>
-  <si>
-    <t>ev_charge_rule</t>
-  </si>
-  <si>
-    <t>disturbance_rule</t>
-  </si>
-  <si>
-    <t>disturbance_scale</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>shift_ratio</t>
-  </si>
-  <si>
-    <t>p_grid_max_method</t>
-  </si>
-  <si>
-    <t>TCO</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>runtime</t>
-  </si>
-  <si>
-    <t>save_fn</t>
-  </si>
-  <si>
-    <t>TCO_est</t>
-  </si>
-  <si>
-    <t>OPEX</t>
-  </si>
-  <si>
-    <t>CAPEX</t>
-  </si>
-  <si>
-    <t>CAPEX_est</t>
-  </si>
-  <si>
-    <t>bat_capacity</t>
-  </si>
-  <si>
-    <t>eq_bat_capacity</t>
-  </si>
-  <si>
-    <t>eq_cycles</t>
-  </si>
-  <si>
-    <t>eq_cycles_est</t>
-  </si>
-  <si>
-    <t>eq_rate</t>
-  </si>
-  <si>
-    <t>eq_rate_est</t>
-  </si>
-  <si>
-    <t>eq_rate_opex</t>
-  </si>
-  <si>
-    <t>eq_rate_null</t>
-  </si>
-  <si>
-    <t>demand_charge</t>
-  </si>
-  <si>
-    <t>tou_cost</t>
-  </si>
-  <si>
-    <t>prob</t>
-  </si>
-  <si>
-    <t>ev_I</t>
-  </si>
-  <si>
-    <t>load_bld</t>
-  </si>
-  <si>
-    <t>load_ev</t>
-  </si>
-  <si>
-    <t>load_tot</t>
-  </si>
-  <si>
-    <t>load_pv</t>
-  </si>
-  <si>
-    <t>grid_import</t>
-  </si>
-  <si>
-    <t>grid_export</t>
-  </si>
-  <si>
-    <t>import_cost</t>
-  </si>
-  <si>
-    <t>export_revenue</t>
-  </si>
-  <si>
-    <t>grid_max</t>
-  </si>
-  <si>
-    <t>bat_e_terminal</t>
-  </si>
-  <si>
-    <t>bat_e_terminal_revenue</t>
-  </si>
-  <si>
-    <t>load_bld_error_max_neg</t>
-  </si>
-  <si>
-    <t>load_bld_error_max_pos</t>
-  </si>
-  <si>
-    <t>load_pv_error_max_neg</t>
-  </si>
-  <si>
-    <t>load_pv_error_max_pos</t>
+    <t>D</t>
   </si>
   <si>
     <t>Sum</t>
@@ -274,201 +277,198 @@
     <t>unif</t>
   </si>
   <si>
-    <t>by_solution</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_003.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-01_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.8-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-by_solution-1.0-0.2-2023-09-03_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-by_solution-nan-2023-09-02_001.xlsx</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-06_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-07_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.8-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-2.0-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-2.0-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-2.0-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-06_001.xlsx</t>
+  </si>
+  <si>
+    <t>by_execution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -476,8 +476,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,7 +530,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,7 +546,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -861,227 +868,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1096,28 +1103,28 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X2">
-        <v>369.74706460573759</v>
+        <v>369.74815241327059</v>
       </c>
       <c r="Y2">
         <v>30.989583333333329</v>
       </c>
       <c r="Z2">
-        <v>2677.9510011000002</v>
+        <v>849.40998198650777</v>
       </c>
       <c r="AA2" t="s">
         <v>85</v>
       </c>
       <c r="AB2">
-        <v>369.74706460573759</v>
+        <v>369.74815241327059</v>
       </c>
       <c r="AC2">
-        <v>351.74706460573759</v>
+        <v>351.74815241327059</v>
       </c>
       <c r="AD2">
         <v>18</v>
@@ -1138,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.15506549101454359</v>
+        <v>0.15506594722211189</v>
       </c>
       <c r="AK2">
-        <v>0.15506549101454359</v>
+        <v>0.15506594722211189</v>
       </c>
       <c r="AL2">
-        <v>0.14751660393618901</v>
+        <v>0.1475170601437574</v>
       </c>
       <c r="AN2">
-        <v>100.83285893115919</v>
+        <v>100.8328589311585</v>
       </c>
       <c r="AO2">
-        <v>250.91420567457851</v>
+        <v>250.91529348211199</v>
       </c>
       <c r="AQ2">
         <v>62.569411764705883</v>
@@ -1159,28 +1166,28 @@
         <v>1823.9444797310921</v>
       </c>
       <c r="AS2">
-        <v>560.51296587206298</v>
+        <v>560.51296587206195</v>
       </c>
       <c r="AT2">
-        <v>2384.4574456031551</v>
+        <v>2384.4574456031542</v>
       </c>
       <c r="AU2">
         <v>604.95372599168991</v>
       </c>
       <c r="AV2">
-        <v>1803.6582329622611</v>
+        <v>1803.6582329622629</v>
       </c>
       <c r="AW2">
-        <v>6.6277515688547161E-15</v>
+        <v>6.4199626007500811E-15</v>
       </c>
       <c r="AX2">
-        <v>250.91420567457851</v>
+        <v>250.91529348211199</v>
       </c>
       <c r="AY2">
-        <v>7.0074178392660396E-16</v>
+        <v>5.9862998591788781E-16</v>
       </c>
       <c r="AZ2">
-        <v>168.05476488526531</v>
+        <v>168.05476488526421</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -1201,45 +1208,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1254,7 +1261,7 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -1263,25 +1270,25 @@
         <v>0.2</v>
       </c>
       <c r="W3" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X3">
-        <v>388.46828482714449</v>
+        <v>412.5436967704793</v>
       </c>
       <c r="Y3">
         <v>30.989583333333329</v>
       </c>
       <c r="Z3">
-        <v>3972.856051199999</v>
+        <v>853.30166995339096</v>
       </c>
       <c r="AA3" t="s">
         <v>86</v>
       </c>
       <c r="AB3">
-        <v>388.46828482714449</v>
+        <v>412.5436967704793</v>
       </c>
       <c r="AC3">
-        <v>370.46828482714449</v>
+        <v>394.5436967704793</v>
       </c>
       <c r="AD3">
         <v>18</v>
@@ -1302,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.16291684531567749</v>
+        <v>0.17301365454484979</v>
       </c>
       <c r="AK3">
-        <v>0.16291684531567749</v>
+        <v>0.17301365454484979</v>
       </c>
       <c r="AL3">
-        <v>0.15536795823732291</v>
+        <v>0.16546476746649519</v>
       </c>
       <c r="AN3">
-        <v>119.45042070983919</v>
+        <v>150.44195783999999</v>
       </c>
       <c r="AO3">
-        <v>251.01786411730529</v>
+        <v>244.10173893047931</v>
       </c>
       <c r="AQ3">
         <v>62.569411764705883</v>
@@ -1323,7 +1330,7 @@
         <v>1823.9444797310921</v>
       </c>
       <c r="AS3">
-        <v>560.51296587206252</v>
+        <v>560.51296587206286</v>
       </c>
       <c r="AT3">
         <v>2384.4574456031551</v>
@@ -1332,19 +1339,19 @@
         <v>604.95372599168991</v>
       </c>
       <c r="AV3">
-        <v>1903.1936840873391</v>
+        <v>1815.8278503734821</v>
       </c>
       <c r="AW3">
-        <v>97.195556888733989</v>
+        <v>8.1918536513243208</v>
       </c>
       <c r="AX3">
-        <v>264.20528233235478</v>
+        <v>245.02322562641501</v>
       </c>
       <c r="AY3">
-        <v>13.18741821504948</v>
+        <v>0.92148669593569188</v>
       </c>
       <c r="AZ3">
-        <v>199.0840345163987</v>
+        <v>250.7365964</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -1353,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>-24.723507519999998</v>
+        <v>-9.4614995999999962</v>
       </c>
       <c r="BD3">
-        <v>13.26234220000001</v>
+        <v>25.5533964</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -1365,45 +1372,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1418,7 +1425,7 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1427,25 +1434,25 @@
         <v>0.2</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X4">
-        <v>380.57514625325729</v>
+        <v>407.67949071483321</v>
       </c>
       <c r="Y4">
         <v>30.989583333333329</v>
       </c>
       <c r="Z4">
-        <v>5009.1578425999996</v>
+        <v>850.61914187297225</v>
       </c>
       <c r="AA4" t="s">
         <v>87</v>
       </c>
       <c r="AB4">
-        <v>380.57514625325729</v>
+        <v>407.67949071483321</v>
       </c>
       <c r="AC4">
-        <v>362.57514625325729</v>
+        <v>389.67949071483321</v>
       </c>
       <c r="AD4">
         <v>18</v>
@@ -1466,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.15960660021633971</v>
+        <v>0.1709736910870765</v>
       </c>
       <c r="AK4">
-        <v>0.15960660021633971</v>
+        <v>0.1709736910870765</v>
       </c>
       <c r="AL4">
-        <v>0.15205771313798511</v>
+        <v>0.16342480400872189</v>
       </c>
       <c r="AN4">
-        <v>103.4489873303383</v>
+        <v>144.5094059430098</v>
       </c>
       <c r="AO4">
-        <v>259.12615892291899</v>
+        <v>245.17008477182341</v>
       </c>
       <c r="AQ4">
         <v>62.569411764705883</v>
@@ -1487,28 +1494,28 @@
         <v>1823.9444797310921</v>
       </c>
       <c r="AS4">
-        <v>560.51296587206252</v>
+        <v>560.5129658720623</v>
       </c>
       <c r="AT4">
-        <v>2384.4574456031551</v>
+        <v>2384.4574456031542</v>
       </c>
       <c r="AU4">
         <v>604.95372599168991</v>
       </c>
       <c r="AV4">
-        <v>1886.216388622187</v>
+        <v>1812.895384746736</v>
       </c>
       <c r="AW4">
-        <v>82.698295151856954</v>
+        <v>5.8584042091985804</v>
       </c>
       <c r="AX4">
-        <v>270.68320345828607</v>
+        <v>245.84160193624939</v>
       </c>
       <c r="AY4">
-        <v>11.55704453536708</v>
+        <v>0.67151716442609033</v>
       </c>
       <c r="AZ4">
-        <v>172.41497888389719</v>
+        <v>240.8490099050164</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -1517,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>-24.146502686544469</v>
+        <v>-11.327159598491241</v>
       </c>
       <c r="BD4">
-        <v>2.5096422041366542</v>
+        <v>17.660444161520939</v>
       </c>
       <c r="BE4">
         <v>0</v>
@@ -1529,45 +1536,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1582,7 +1589,7 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -1591,25 +1598,25 @@
         <v>0.2</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X5">
-        <v>405.20555952505191</v>
+        <v>405.11739976460711</v>
       </c>
       <c r="Y5">
         <v>30.989583333333329</v>
       </c>
       <c r="Z5">
-        <v>3952.231358</v>
+        <v>845.43309689499438</v>
       </c>
       <c r="AA5" t="s">
         <v>88</v>
       </c>
       <c r="AB5">
-        <v>405.20555952505191</v>
+        <v>405.11739976460711</v>
       </c>
       <c r="AC5">
-        <v>387.20555952505191</v>
+        <v>387.11739976460711</v>
       </c>
       <c r="AD5">
         <v>18</v>
@@ -1630,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.16993616735422759</v>
+        <v>0.1698991946833136</v>
       </c>
       <c r="AK5">
-        <v>0.16993616735422759</v>
+        <v>0.1698991946833136</v>
       </c>
       <c r="AL5">
-        <v>0.16238728027587301</v>
+        <v>0.162350307604959</v>
       </c>
       <c r="AN5">
         <v>141.46476000000001</v>
       </c>
       <c r="AO5">
-        <v>245.7407995250519</v>
+        <v>245.65263976460719</v>
       </c>
       <c r="AQ5">
         <v>62.569411764705883</v>
@@ -1651,7 +1658,7 @@
         <v>1823.9444797310921</v>
       </c>
       <c r="AS5">
-        <v>560.51296587206355</v>
+        <v>560.51296587206343</v>
       </c>
       <c r="AT5">
         <v>2384.457445603156</v>
@@ -1660,16 +1667,16 @@
         <v>604.95372599168991</v>
       </c>
       <c r="AV5">
-        <v>1814.957642794466</v>
+        <v>1814.964117152977</v>
       </c>
       <c r="AW5">
-        <v>8.2977508207279769</v>
+        <v>8.3020497636194239</v>
       </c>
       <c r="AX5">
-        <v>246.9323518876763</v>
+        <v>246.84450016091861</v>
       </c>
       <c r="AY5">
-        <v>1.1915523626244131</v>
+        <v>1.1918603963113961</v>
       </c>
       <c r="AZ5">
         <v>235.77459999999999</v>
@@ -1693,45 +1700,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1746,10 +1753,10 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X6">
         <v>457.06360650159212</v>
@@ -1758,7 +1765,7 @@
         <v>30.989583333333329</v>
       </c>
       <c r="Z6">
-        <v>1183.9692500000001</v>
+        <v>176.79106322862211</v>
       </c>
       <c r="AA6" t="s">
         <v>89</v>
@@ -1851,45 +1858,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1904,28 +1911,28 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X7">
-        <v>366.74782076808071</v>
+        <v>366.74727866410763</v>
       </c>
       <c r="Y7">
         <v>27.989583333333329</v>
       </c>
       <c r="Z7">
-        <v>1725.8920717999999</v>
+        <v>799.47596731595695</v>
       </c>
       <c r="AA7" t="s">
         <v>90</v>
       </c>
       <c r="AB7">
-        <v>366.74782076808071</v>
+        <v>366.74727866410763</v>
       </c>
       <c r="AC7">
-        <v>348.74782076808071</v>
+        <v>348.74727866410763</v>
       </c>
       <c r="AD7">
         <v>18</v>
@@ -1946,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.14649697103550591</v>
+        <v>0.14649675449273311</v>
       </c>
       <c r="AK7">
-        <v>0.14649697103550591</v>
+        <v>0.14649675449273311</v>
       </c>
       <c r="AL7">
-        <v>0.13930689292374909</v>
+        <v>0.1393066763809763</v>
       </c>
       <c r="AN7">
-        <v>101.33244000000001</v>
+        <v>101.3324400000001</v>
       </c>
       <c r="AO7">
-        <v>247.41538076808069</v>
+        <v>247.41483866410741</v>
       </c>
       <c r="AQ7">
         <v>69.490137700037224</v>
@@ -1967,34 +1974,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AS7">
-        <v>606.36913331763719</v>
+        <v>606.36913331763571</v>
       </c>
       <c r="AT7">
-        <v>2503.4498541215121</v>
+        <v>2503.4498541215112</v>
       </c>
       <c r="AU7">
         <v>747.25537164243337</v>
       </c>
       <c r="AV7">
-        <v>1780.703038713254</v>
+        <v>1780.703038713252</v>
       </c>
       <c r="AW7">
-        <v>5.672177775234146E-15</v>
+        <v>1.2313187313825589E-14</v>
       </c>
       <c r="AX7">
-        <v>247.41538076808069</v>
+        <v>247.41483866410741</v>
       </c>
       <c r="AY7">
-        <v>6.9342730292447057E-16</v>
+        <v>1.0663053618341799E-15</v>
       </c>
       <c r="AZ7">
-        <v>168.8874000000001</v>
+        <v>168.88740000000021</v>
       </c>
       <c r="BA7">
         <v>8.8817841970012523E-16</v>
       </c>
       <c r="BB7">
-        <v>1.5058904790967871E-16</v>
+        <v>5.3801818382319153E-18</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -2009,45 +2016,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -2062,7 +2069,7 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2071,25 +2078,25 @@
         <v>0.2</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X8">
-        <v>378.12345681019019</v>
+        <v>403.02289515232098</v>
       </c>
       <c r="Y8">
         <v>27.989583333333329</v>
       </c>
       <c r="Z8">
-        <v>3957.691542600001</v>
+        <v>757.93434124812484</v>
       </c>
       <c r="AA8" t="s">
         <v>91</v>
       </c>
       <c r="AB8">
-        <v>378.12345681019019</v>
+        <v>403.02289515232098</v>
       </c>
       <c r="AC8">
-        <v>360.12345681019019</v>
+        <v>385.02289515232098</v>
       </c>
       <c r="AD8">
         <v>18</v>
@@ -2110,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.1510409550195996</v>
+        <v>0.16098700538731031</v>
       </c>
       <c r="AK8">
-        <v>0.1510409550195996</v>
+        <v>0.16098700538731031</v>
       </c>
       <c r="AL8">
-        <v>0.14385087690784271</v>
+        <v>0.15379692727555341</v>
       </c>
       <c r="AN8">
-        <v>105.58637220514861</v>
+        <v>142.17796673999999</v>
       </c>
       <c r="AO8">
-        <v>254.5370846050416</v>
+        <v>242.844928412321</v>
       </c>
       <c r="AQ8">
         <v>69.490137700037224</v>
@@ -2131,28 +2138,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AS8">
-        <v>606.36913331763571</v>
+        <v>606.36913331763662</v>
       </c>
       <c r="AT8">
-        <v>2503.4498541215112</v>
+        <v>2503.4498541215121</v>
       </c>
       <c r="AU8">
         <v>747.25537164243337</v>
       </c>
       <c r="AV8">
-        <v>1891.127503521265</v>
+        <v>1795.8753535631211</v>
       </c>
       <c r="AW8">
-        <v>109.7671549509823</v>
+        <v>12.21442004735311</v>
       </c>
       <c r="AX8">
-        <v>269.4064752759657</v>
+        <v>244.22060037564171</v>
       </c>
       <c r="AY8">
-        <v>14.869390670924091</v>
+        <v>1.375671963320735</v>
       </c>
       <c r="AZ8">
-        <v>175.97728700858099</v>
+        <v>236.96327790000009</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -2161,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>-28.2673308</v>
+        <v>-14.012924300000011</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>13.8955929</v>
       </c>
       <c r="BE8">
         <v>0</v>
@@ -2173,45 +2180,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -2226,7 +2233,7 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -2235,25 +2242,25 @@
         <v>0.2</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X9">
-        <v>377.98842849203129</v>
+        <v>401.20753972592797</v>
       </c>
       <c r="Y9">
         <v>27.989583333333329</v>
       </c>
       <c r="Z9">
-        <v>3964.4323703999999</v>
+        <v>765.51409520022571</v>
       </c>
       <c r="AA9" t="s">
         <v>92</v>
       </c>
       <c r="AB9">
-        <v>377.98842849203129</v>
+        <v>401.20753972592797</v>
       </c>
       <c r="AC9">
-        <v>359.98842849203129</v>
+        <v>383.20753972592797</v>
       </c>
       <c r="AD9">
         <v>18</v>
@@ -2274,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.15098701812210721</v>
+        <v>0.16026186386973429</v>
       </c>
       <c r="AK9">
-        <v>0.15098701812210721</v>
+        <v>0.16026186386973429</v>
       </c>
       <c r="AL9">
-        <v>0.14379694001035029</v>
+        <v>0.1530717857579775</v>
       </c>
       <c r="AN9">
-        <v>104.9079385121379</v>
+        <v>140.17587122430891</v>
       </c>
       <c r="AO9">
-        <v>255.0804899798934</v>
+        <v>243.03166850161909</v>
       </c>
       <c r="AQ9">
         <v>69.490137700037224</v>
@@ -2295,7 +2302,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AS9">
-        <v>606.36913331763697</v>
+        <v>606.36913331763674</v>
       </c>
       <c r="AT9">
         <v>2503.4498541215121</v>
@@ -2304,19 +2311,19 @@
         <v>747.25537164243337</v>
       </c>
       <c r="AV9">
-        <v>1885.685667409047</v>
+        <v>1794.6722205598369</v>
       </c>
       <c r="AW9">
-        <v>104.4431629340919</v>
+        <v>11.04961470788721</v>
       </c>
       <c r="AX9">
-        <v>269.45908462268062</v>
+        <v>244.40072152874779</v>
       </c>
       <c r="AY9">
-        <v>14.37859464278722</v>
+        <v>1.3690530271286929</v>
       </c>
       <c r="AZ9">
-        <v>174.84656418689639</v>
+        <v>233.62645204051489</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -2325,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>-26.996507466397841</v>
+        <v>-12.19819991079334</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>11.791396142640981</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -2337,45 +2344,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -2390,7 +2397,7 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -2399,25 +2406,25 @@
         <v>0.2</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X10">
-        <v>402.50026844658078</v>
+        <v>402.73295567789017</v>
       </c>
       <c r="Y10">
         <v>27.989583333333329</v>
       </c>
       <c r="Z10">
-        <v>4556.6473844000002</v>
+        <v>744.79941689223051</v>
       </c>
       <c r="AA10" t="s">
         <v>93</v>
       </c>
       <c r="AB10">
-        <v>402.50026844658078</v>
+        <v>402.73295567789017</v>
       </c>
       <c r="AC10">
-        <v>384.50026844658078</v>
+        <v>384.73295567789017</v>
       </c>
       <c r="AD10">
         <v>18</v>
@@ -2438,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.16077824278522351</v>
+        <v>0.16087118941681919</v>
       </c>
       <c r="AK10">
-        <v>0.16077824278522351</v>
+        <v>0.16087118941681919</v>
       </c>
       <c r="AL10">
-        <v>0.1535881646734667</v>
+        <v>0.1536811113050624</v>
       </c>
       <c r="AN10">
-        <v>140.93819999999999</v>
+        <v>141.1638708673957</v>
       </c>
       <c r="AO10">
-        <v>243.56206844658081</v>
+        <v>243.56908481049459</v>
       </c>
       <c r="AQ10">
         <v>69.490137700037224</v>
@@ -2459,28 +2466,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AS10">
-        <v>606.3691333176364</v>
+        <v>606.36913331763674</v>
       </c>
       <c r="AT10">
-        <v>2503.4498541215112</v>
+        <v>2503.4498541215121</v>
       </c>
       <c r="AU10">
         <v>747.25537164243337</v>
       </c>
       <c r="AV10">
-        <v>1792.5769806224121</v>
+        <v>1792.5862520754761</v>
       </c>
       <c r="AW10">
-        <v>9.3085102521722263</v>
+        <v>9.3179530508324362</v>
       </c>
       <c r="AX10">
-        <v>244.87396742926211</v>
+        <v>244.88204733741111</v>
       </c>
       <c r="AY10">
-        <v>1.311898982681287</v>
+        <v>1.3129625269164931</v>
       </c>
       <c r="AZ10">
-        <v>234.89699999999999</v>
+        <v>235.27311811232619</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -2501,45 +2508,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -2554,10 +2561,10 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W11" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X11">
         <v>447.27786401694817</v>
@@ -2566,7 +2573,7 @@
         <v>27.989583333333329</v>
       </c>
       <c r="Z11">
-        <v>1008.0313576999999</v>
+        <v>141.77892481908199</v>
       </c>
       <c r="AA11" t="s">
         <v>94</v>
@@ -2659,45 +2666,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -2712,28 +2719,28 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W12" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X12">
-        <v>307.07330443314311</v>
+        <v>307.07330443314328</v>
       </c>
       <c r="Y12">
         <v>30.989583333333329</v>
       </c>
       <c r="Z12">
-        <v>2698.1153337000001</v>
+        <v>768.30598820745945</v>
       </c>
       <c r="AA12" t="s">
         <v>95</v>
       </c>
       <c r="AB12">
-        <v>307.07330443314311</v>
+        <v>307.07330443314328</v>
       </c>
       <c r="AC12">
-        <v>289.07330443314311</v>
+        <v>289.07330443314328</v>
       </c>
       <c r="AD12">
         <v>18</v>
@@ -2754,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.12961425337957799</v>
+        <v>0.1296142533795781</v>
       </c>
       <c r="AK12">
-        <v>0.12961425337957799</v>
+        <v>0.1296142533795781</v>
       </c>
       <c r="AL12">
-        <v>0.1220165347659746</v>
+        <v>0.1220165347659747</v>
       </c>
       <c r="AN12">
-        <v>91.657318078610231</v>
+        <v>91.657318078610373</v>
       </c>
       <c r="AO12">
         <v>197.41598635453289</v>
@@ -2775,10 +2782,10 @@
         <v>1827.0320728739489</v>
       </c>
       <c r="AS12">
-        <v>542.10015160349872</v>
+        <v>542.10015160349803</v>
       </c>
       <c r="AT12">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477446</v>
       </c>
       <c r="AU12">
         <v>944.92985455776079</v>
@@ -2787,16 +2794,16 @@
         <v>1476.745440344306</v>
       </c>
       <c r="AW12">
-        <v>27.690309605312802</v>
+        <v>27.690309605312791</v>
       </c>
       <c r="AX12">
-        <v>201.7065001912103</v>
+        <v>201.70650019121041</v>
       </c>
       <c r="AY12">
         <v>4.290513836677432</v>
       </c>
       <c r="AZ12">
-        <v>152.76219679768371</v>
+        <v>152.76219679768391</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -2817,45 +2824,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -2870,7 +2877,7 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2879,25 +2886,25 @@
         <v>0.2</v>
       </c>
       <c r="W13" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X13">
-        <v>316.99461760142441</v>
+        <v>355.24749393071238</v>
       </c>
       <c r="Y13">
         <v>30.989583333333329</v>
       </c>
       <c r="Z13">
-        <v>4085.5004978000002</v>
+        <v>783.19048491492867</v>
       </c>
       <c r="AA13" t="s">
         <v>96</v>
       </c>
       <c r="AB13">
-        <v>316.99461760142441</v>
+        <v>355.24749393071238</v>
       </c>
       <c r="AC13">
-        <v>298.99461760142441</v>
+        <v>337.24749393071238</v>
       </c>
       <c r="AD13">
         <v>18</v>
@@ -2918,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.1338019948090246</v>
+        <v>0.14994836094851921</v>
       </c>
       <c r="AK13">
-        <v>0.1338019948090246</v>
+        <v>0.14994836094851921</v>
       </c>
       <c r="AL13">
-        <v>0.12620427619542121</v>
+        <v>0.14235064233491579</v>
       </c>
       <c r="AN13">
-        <v>94.897464063061051</v>
+        <v>142.62190620000001</v>
       </c>
       <c r="AO13">
-        <v>204.09715353836339</v>
+        <v>194.6255877307124</v>
       </c>
       <c r="AQ13">
         <v>61.60134453781513</v>
@@ -2939,40 +2946,40 @@
         <v>1827.0320728739489</v>
       </c>
       <c r="AS13">
-        <v>542.10015160349872</v>
+        <v>542.10015160349781</v>
       </c>
       <c r="AT13">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477446</v>
       </c>
       <c r="AU13">
         <v>944.92985455776079</v>
       </c>
       <c r="AV13">
-        <v>1591.2794316597319</v>
+        <v>1497.015576204725</v>
       </c>
       <c r="AW13">
-        <v>141.13898548248679</v>
+        <v>44.973737081140641</v>
       </c>
       <c r="AX13">
-        <v>222.37346936863719</v>
+        <v>200.65223881710361</v>
       </c>
       <c r="AY13">
-        <v>18.27631583027388</v>
+        <v>6.0266510863911993</v>
       </c>
       <c r="AZ13">
-        <v>158.16244010510181</v>
+        <v>237.70317700000001</v>
       </c>
       <c r="BA13">
-        <v>3.5527136788005009E-15</v>
+        <v>4.6185277824406512E-14</v>
       </c>
       <c r="BB13">
-        <v>6.023539463669574E-16</v>
+        <v>2.5268494960200428E-16</v>
       </c>
       <c r="BC13">
-        <v>-40.513191239999998</v>
+        <v>-25.145092699999999</v>
       </c>
       <c r="BD13">
-        <v>5.3177474799999942</v>
+        <v>16.1165229</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -2981,45 +2988,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -3034,7 +3041,7 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -3043,25 +3050,25 @@
         <v>0.2</v>
       </c>
       <c r="W14" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X14">
-        <v>319.18852907310873</v>
+        <v>352.48963380637952</v>
       </c>
       <c r="Y14">
         <v>30.989583333333329</v>
       </c>
       <c r="Z14">
-        <v>4135.355811899999</v>
+        <v>767.86008256860077</v>
       </c>
       <c r="AA14" t="s">
         <v>97</v>
       </c>
       <c r="AB14">
-        <v>319.18852907310873</v>
+        <v>352.48963380637952</v>
       </c>
       <c r="AC14">
-        <v>301.18852907310873</v>
+        <v>334.48963380637952</v>
       </c>
       <c r="AD14">
         <v>18</v>
@@ -3082,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.13472803492152541</v>
+        <v>0.14878428065961041</v>
       </c>
       <c r="AK14">
-        <v>0.13472803492152541</v>
+        <v>0.14878428065961041</v>
       </c>
       <c r="AL14">
-        <v>0.12713031630792199</v>
+        <v>0.14118656204600699</v>
       </c>
       <c r="AN14">
-        <v>96.555320533269835</v>
+        <v>139.5997004699758</v>
       </c>
       <c r="AO14">
-        <v>204.6332085398389</v>
+        <v>194.88993333640369</v>
       </c>
       <c r="AQ14">
         <v>61.60134453781513</v>
@@ -3103,28 +3110,28 @@
         <v>1827.0320728739489</v>
       </c>
       <c r="AS14">
-        <v>542.10015160349883</v>
+        <v>542.10015160349781</v>
       </c>
       <c r="AT14">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477446</v>
       </c>
       <c r="AU14">
         <v>944.92985455776079</v>
       </c>
       <c r="AV14">
-        <v>1593.407804475868</v>
+        <v>1497.585782061944</v>
       </c>
       <c r="AW14">
-        <v>143.36951160027559</v>
+        <v>45.539519895501734</v>
       </c>
       <c r="AX14">
-        <v>222.95498013493341</v>
+        <v>200.7881385569894</v>
       </c>
       <c r="AY14">
-        <v>18.321771595094511</v>
+        <v>5.8982052205856794</v>
       </c>
       <c r="AZ14">
-        <v>160.9255342221164</v>
+        <v>232.66616744995969</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -3133,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>-29.874911785517341</v>
+        <v>-16.17920982126445</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>12.876906861902301</v>
       </c>
       <c r="BE14">
         <v>0</v>
@@ -3145,45 +3152,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -3198,7 +3205,7 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3207,25 +3214,25 @@
         <v>0.2</v>
       </c>
       <c r="W15" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X15">
-        <v>352.20649639521332</v>
+        <v>352.20839138463282</v>
       </c>
       <c r="Y15">
         <v>30.989583333333329</v>
       </c>
       <c r="Z15">
-        <v>4893.914337799999</v>
+        <v>763.3946796990931</v>
       </c>
       <c r="AA15" t="s">
         <v>98</v>
       </c>
       <c r="AB15">
-        <v>352.20649639521332</v>
+        <v>352.20839138463282</v>
       </c>
       <c r="AC15">
-        <v>334.20649639521332</v>
+        <v>334.20839138463282</v>
       </c>
       <c r="AD15">
         <v>18</v>
@@ -3246,19 +3253,19 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.14866476963855341</v>
+        <v>0.1486655695050193</v>
       </c>
       <c r="AK15">
-        <v>0.14866476963855341</v>
+        <v>0.1486655695050193</v>
       </c>
       <c r="AL15">
-        <v>0.14106705102495001</v>
+        <v>0.14106785089141591</v>
       </c>
       <c r="AN15">
         <v>139.18278000000001</v>
       </c>
       <c r="AO15">
-        <v>195.02371639521331</v>
+        <v>195.02561138463281</v>
       </c>
       <c r="AQ15">
         <v>61.60134453781513</v>
@@ -3267,34 +3274,34 @@
         <v>1827.0320728739489</v>
       </c>
       <c r="AS15">
-        <v>542.10015160349849</v>
+        <v>542.10015160349803</v>
       </c>
       <c r="AT15">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477446</v>
       </c>
       <c r="AU15">
         <v>944.92985455776079</v>
       </c>
       <c r="AV15">
-        <v>1491.468757649483</v>
+        <v>1491.7571479965391</v>
       </c>
       <c r="AW15">
-        <v>39.602571970102417</v>
+        <v>39.875433811825722</v>
       </c>
       <c r="AX15">
-        <v>200.87640910820289</v>
+        <v>200.90831753211481</v>
       </c>
       <c r="AY15">
-        <v>5.8526927129896222</v>
+        <v>5.8827061474819562</v>
       </c>
       <c r="AZ15">
         <v>231.97130000000001</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.9437303815538801E-17</v>
       </c>
       <c r="BC15">
         <v>-17.4482</v>
@@ -3309,45 +3316,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -3362,10 +3369,10 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W16" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X16">
         <v>377.62252880403429</v>
@@ -3374,7 +3381,7 @@
         <v>30.989583333333329</v>
       </c>
       <c r="Z16">
-        <v>1176.1423794</v>
+        <v>162.9304059073329</v>
       </c>
       <c r="AA16" t="s">
         <v>99</v>
@@ -3467,45 +3474,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -3520,28 +3527,28 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W17" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X17">
-        <v>313.92124741590641</v>
+        <v>313.82627334409278</v>
       </c>
       <c r="Y17">
         <v>29.989583333333329</v>
       </c>
       <c r="Z17">
-        <v>2904.1480617000002</v>
+        <v>887.39483524300158</v>
       </c>
       <c r="AA17" t="s">
         <v>100</v>
       </c>
       <c r="AB17">
-        <v>313.92124741590641</v>
+        <v>313.82627334409278</v>
       </c>
       <c r="AC17">
-        <v>295.92124741590641</v>
+        <v>295.82627334409278</v>
       </c>
       <c r="AD17">
         <v>18</v>
@@ -3562,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.1209647610612502</v>
+        <v>0.1209281642523418</v>
       </c>
       <c r="AK17">
-        <v>0.1209647610612502</v>
+        <v>0.1209281642523418</v>
       </c>
       <c r="AL17">
-        <v>0.1140287358096119</v>
+        <v>0.1139921390007036</v>
       </c>
       <c r="AN17">
-        <v>87.444325554399967</v>
+        <v>87.351897834087822</v>
       </c>
       <c r="AO17">
-        <v>208.47692186150641</v>
+        <v>208.4743755100049</v>
       </c>
       <c r="AQ17">
         <v>79.39423410906565</v>
@@ -3583,7 +3590,7 @@
         <v>1901.7421513025411</v>
       </c>
       <c r="AS17">
-        <v>693.40410998716868</v>
+        <v>693.40410998716823</v>
       </c>
       <c r="AT17">
         <v>2595.1462612897089</v>
@@ -3592,25 +3599,25 @@
         <v>1094.388561628032</v>
       </c>
       <c r="AV17">
-        <v>1533.1682569729089</v>
+        <v>1533.1682569729051</v>
       </c>
       <c r="AW17">
-        <v>7.6206913370226932</v>
+        <v>7.6206913370226879</v>
       </c>
       <c r="AX17">
-        <v>209.63083732782221</v>
+        <v>209.6282909763207</v>
       </c>
       <c r="AY17">
         <v>1.1539154663157241</v>
       </c>
       <c r="AZ17">
-        <v>145.74054259066659</v>
+        <v>145.58649639014641</v>
       </c>
       <c r="BA17">
         <v>3.5527136788005009E-15</v>
       </c>
       <c r="BB17">
-        <v>6.0235464487861794E-16</v>
+        <v>2.0085462281468329E-17</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3625,45 +3632,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N18">
         <v>4</v>
@@ -3678,7 +3685,7 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3687,25 +3694,25 @@
         <v>0.2</v>
       </c>
       <c r="W18" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X18">
-        <v>322.54212747015242</v>
+        <v>360.17664881148391</v>
       </c>
       <c r="Y18">
         <v>29.989583333333329</v>
       </c>
       <c r="Z18">
-        <v>4673.2445835999988</v>
+        <v>938.65649692155421</v>
       </c>
       <c r="AA18" t="s">
         <v>101</v>
       </c>
       <c r="AB18">
-        <v>322.54212747015242</v>
+        <v>360.17664881148391</v>
       </c>
       <c r="AC18">
-        <v>304.54212747015242</v>
+        <v>342.17664881148391</v>
       </c>
       <c r="AD18">
         <v>18</v>
@@ -3726,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.12428668560278321</v>
+        <v>0.13877846939404101</v>
       </c>
       <c r="AK18">
-        <v>0.12428668560278321</v>
+        <v>0.13877846939404101</v>
       </c>
       <c r="AL18">
-        <v>0.1173506603511449</v>
+        <v>0.1318429491227083</v>
       </c>
       <c r="AN18">
-        <v>88.89469097685712</v>
+        <v>140.58706128</v>
       </c>
       <c r="AO18">
-        <v>215.64743649329529</v>
+        <v>201.58958753148389</v>
       </c>
       <c r="AQ18">
         <v>79.39423410906565</v>
@@ -3747,40 +3754,40 @@
         <v>1901.7421513025411</v>
       </c>
       <c r="AS18">
-        <v>693.40410998716982</v>
+        <v>693.59306448525888</v>
       </c>
       <c r="AT18">
-        <v>2595.1462612897099</v>
+        <v>2595.3352157877989</v>
       </c>
       <c r="AU18">
         <v>1094.388561628032</v>
       </c>
       <c r="AV18">
-        <v>1655.072236799771</v>
+        <v>1547.1714951378549</v>
       </c>
       <c r="AW18">
-        <v>128.86446324520091</v>
+        <v>17.80031820365306</v>
       </c>
       <c r="AX18">
-        <v>232.8393779349343</v>
+        <v>203.9712818567746</v>
       </c>
       <c r="AY18">
-        <v>17.191941441638999</v>
+        <v>2.38169432529063</v>
       </c>
       <c r="AZ18">
-        <v>148.15781829476191</v>
+        <v>234.31176880000001</v>
       </c>
       <c r="BA18">
-        <v>1.4210854715202001E-14</v>
+        <v>0</v>
       </c>
       <c r="BB18">
-        <v>2.4094185795144722E-15</v>
+        <v>0</v>
       </c>
       <c r="BC18">
-        <v>-25.331823719999999</v>
+        <v>-9.5456855999999988</v>
       </c>
       <c r="BD18">
-        <v>1.5587489199999991</v>
+        <v>17.7250406</v>
       </c>
       <c r="BE18">
         <v>0</v>
@@ -3789,45 +3796,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A19">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -3842,7 +3849,7 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -3851,25 +3858,25 @@
         <v>0.2</v>
       </c>
       <c r="W19" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X19">
-        <v>324.98094610992672</v>
+        <v>362.73263183641029</v>
       </c>
       <c r="Y19">
         <v>29.989583333333329</v>
       </c>
       <c r="Z19">
-        <v>4800.0100875999997</v>
+        <v>925.06761550158262</v>
       </c>
       <c r="AA19" t="s">
         <v>102</v>
       </c>
       <c r="AB19">
-        <v>324.98094610992672</v>
+        <v>362.73263183641029</v>
       </c>
       <c r="AC19">
-        <v>306.98094610992672</v>
+        <v>344.73263183641029</v>
       </c>
       <c r="AD19">
         <v>18</v>
@@ -3890,19 +3897,19 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.1252264471399854</v>
+        <v>0.139763306731961</v>
       </c>
       <c r="AK19">
-        <v>0.1252264471399854</v>
+        <v>0.139763306731961</v>
       </c>
       <c r="AL19">
-        <v>0.1182904218883471</v>
+        <v>0.13282778646062829</v>
       </c>
       <c r="AN19">
-        <v>90.501469449067457</v>
+        <v>142.47887359810119</v>
       </c>
       <c r="AO19">
-        <v>216.47947666085921</v>
+        <v>202.2537582383091</v>
       </c>
       <c r="AQ19">
         <v>79.39423410906565</v>
@@ -3911,40 +3918,40 @@
         <v>1901.7421513025411</v>
       </c>
       <c r="AS19">
-        <v>693.4041099871705</v>
+        <v>693.59306448525808</v>
       </c>
       <c r="AT19">
-        <v>2595.1462612897112</v>
+        <v>2595.3352157877989</v>
       </c>
       <c r="AU19">
         <v>1094.388561628032</v>
       </c>
       <c r="AV19">
-        <v>1639.1653176644761</v>
+        <v>1544.6817707928601</v>
       </c>
       <c r="AW19">
-        <v>113.4809942672962</v>
+        <v>15.63155092427206</v>
       </c>
       <c r="AX19">
-        <v>231.90655983224769</v>
+        <v>204.5694225315807</v>
       </c>
       <c r="AY19">
-        <v>15.427083171388521</v>
+        <v>2.3156642932715621</v>
       </c>
       <c r="AZ19">
-        <v>150.83578241511239</v>
+        <v>237.46478933016871</v>
       </c>
       <c r="BA19">
-        <v>1.06581410364015E-14</v>
+        <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.8070639346358538E-15</v>
+        <v>0</v>
       </c>
       <c r="BC19">
-        <v>-27.468961096736251</v>
+        <v>-10.781352368211071</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>12.281589330168689</v>
       </c>
       <c r="BE19">
         <v>0</v>
@@ -3953,45 +3960,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -4006,7 +4013,7 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4015,25 +4022,25 @@
         <v>0.2</v>
       </c>
       <c r="W20" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X20">
-        <v>363.21414361460211</v>
+        <v>363.23038379855632</v>
       </c>
       <c r="Y20">
         <v>29.989583333333329</v>
       </c>
       <c r="Z20">
-        <v>5701.2156765</v>
+        <v>922.72129689157009</v>
       </c>
       <c r="AA20" t="s">
         <v>103</v>
       </c>
       <c r="AB20">
-        <v>363.21414361460211</v>
+        <v>363.23038379855632</v>
       </c>
       <c r="AC20">
-        <v>345.21414361460211</v>
+        <v>345.23038379855632</v>
       </c>
       <c r="AD20">
         <v>18</v>
@@ -4054,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.13994883643743511</v>
+        <v>0.1399550938888254</v>
       </c>
       <c r="AK20">
-        <v>0.13994883643743511</v>
+        <v>0.1399550938888254</v>
       </c>
       <c r="AL20">
-        <v>0.13301331616610229</v>
+        <v>0.1330195736174927</v>
       </c>
       <c r="AN20">
         <v>142.36985999999999</v>
       </c>
       <c r="AO20">
-        <v>202.84428361460201</v>
+        <v>202.8605237985563</v>
       </c>
       <c r="AQ20">
         <v>79.39423410906565</v>
@@ -4075,7 +4082,7 @@
         <v>1901.7421513025411</v>
       </c>
       <c r="AS20">
-        <v>693.59306448525865</v>
+        <v>693.59306448525854</v>
       </c>
       <c r="AT20">
         <v>2595.3352157877989</v>
@@ -4084,16 +4091,16 @@
         <v>1094.388561628032</v>
       </c>
       <c r="AV20">
-        <v>1550.957137759608</v>
+        <v>1550.7707618846789</v>
       </c>
       <c r="AW20">
-        <v>21.99333725434883</v>
+        <v>21.822392495890359</v>
       </c>
       <c r="AX20">
-        <v>205.97299730948291</v>
+        <v>205.9670367582099</v>
       </c>
       <c r="AY20">
-        <v>3.1287136948808421</v>
+        <v>3.1065129596535992</v>
       </c>
       <c r="AZ20">
         <v>237.28309999999999</v>
@@ -4117,45 +4124,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N21">
         <v>4</v>
@@ -4170,10 +4177,10 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X21">
         <v>404.17335073704612</v>
@@ -4182,7 +4189,7 @@
         <v>29.989583333333329</v>
       </c>
       <c r="Z21">
-        <v>955.30676870000025</v>
+        <v>159.6409465037286</v>
       </c>
       <c r="AA21" t="s">
         <v>104</v>
@@ -4275,45 +4282,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -4328,28 +4335,28 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W22" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X22">
-        <v>321.02530581836982</v>
+        <v>321.02068409047467</v>
       </c>
       <c r="Y22">
         <v>30.989583333333329</v>
       </c>
       <c r="Z22">
-        <v>3039.7316111999999</v>
+        <v>933.99405862390995</v>
       </c>
       <c r="AA22" t="s">
         <v>105</v>
       </c>
       <c r="AB22">
-        <v>321.02530581836982</v>
+        <v>321.02068409047467</v>
       </c>
       <c r="AC22">
-        <v>303.02530581836982</v>
+        <v>303.02068409047467</v>
       </c>
       <c r="AD22">
         <v>18</v>
@@ -4370,19 +4377,19 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0.12527019461265379</v>
+        <v>0.1252683911263168</v>
       </c>
       <c r="AK22">
-        <v>0.12527019461265379</v>
+        <v>0.1252683911263168</v>
       </c>
       <c r="AL22">
-        <v>0.1182462514463056</v>
+        <v>0.11824444795996859</v>
       </c>
       <c r="AN22">
-        <v>87.276957246813538</v>
+        <v>87.27695724681341</v>
       </c>
       <c r="AO22">
-        <v>215.74834857155631</v>
+        <v>215.74372684366131</v>
       </c>
       <c r="AQ22">
         <v>80.736806722689082</v>
@@ -4391,28 +4398,28 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AS22">
-        <v>700.3264482936039</v>
+        <v>700.32644829360288</v>
       </c>
       <c r="AT22">
-        <v>2562.6631044280539</v>
+        <v>2562.663104428053</v>
       </c>
       <c r="AU22">
         <v>998.29628226207092</v>
       </c>
       <c r="AV22">
-        <v>1608.7355330975381</v>
+        <v>1608.7569424454421</v>
       </c>
       <c r="AW22">
-        <v>19.794029060938879</v>
+        <v>19.815721715432758</v>
       </c>
       <c r="AX22">
-        <v>218.87073915854251</v>
+        <v>218.8699440149002</v>
       </c>
       <c r="AY22">
-        <v>3.1223905869862372</v>
+        <v>3.126217171238959</v>
       </c>
       <c r="AZ22">
-        <v>145.46159541135589</v>
+        <v>145.46159541135569</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -4433,45 +4440,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -4486,7 +4493,7 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4495,25 +4502,25 @@
         <v>0.2</v>
       </c>
       <c r="W23" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X23">
-        <v>332.62374534704981</v>
+        <v>371.95941987999419</v>
       </c>
       <c r="Y23">
         <v>30.989583333333329</v>
       </c>
       <c r="Z23">
-        <v>5008.8502100000014</v>
+        <v>932.87744097225368</v>
       </c>
       <c r="AA23" t="s">
         <v>106</v>
       </c>
       <c r="AB23">
-        <v>332.62374534704981</v>
+        <v>371.95941987999419</v>
       </c>
       <c r="AC23">
-        <v>314.62374534704981</v>
+        <v>353.95941987999419</v>
       </c>
       <c r="AD23">
         <v>18</v>
@@ -4534,19 +4541,19 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.12979612683864131</v>
+        <v>0.14514218821580499</v>
       </c>
       <c r="AK23">
-        <v>0.12979612683864131</v>
+        <v>0.14514218821580499</v>
       </c>
       <c r="AL23">
-        <v>0.1227721836722931</v>
+        <v>0.1381184129106188</v>
       </c>
       <c r="AN23">
-        <v>92.051436747003223</v>
+        <v>143.46274661999999</v>
       </c>
       <c r="AO23">
-        <v>222.5723086000466</v>
+        <v>210.4966732599942</v>
       </c>
       <c r="AQ23">
         <v>80.736806722689082</v>
@@ -4555,28 +4562,28 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AS23">
-        <v>700.3264482936022</v>
+        <v>700.38769336306063</v>
       </c>
       <c r="AT23">
-        <v>2562.663104428053</v>
+        <v>2562.724349497511</v>
       </c>
       <c r="AU23">
         <v>998.29628226207092</v>
       </c>
       <c r="AV23">
-        <v>1721.73396698694</v>
+        <v>1622.029021810574</v>
       </c>
       <c r="AW23">
-        <v>132.3557023706357</v>
+        <v>30.28557444613018</v>
       </c>
       <c r="AX23">
-        <v>240.26288109872041</v>
+        <v>214.85939272270869</v>
       </c>
       <c r="AY23">
-        <v>17.690572498673781</v>
+        <v>4.3627194627144386</v>
       </c>
       <c r="AZ23">
-        <v>153.41906124500539</v>
+        <v>239.10457769999999</v>
       </c>
       <c r="BA23">
         <v>0</v>
@@ -4585,10 +4592,10 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>-26.270740279999998</v>
+        <v>-9.3715451999999928</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>13.92137769999999</v>
       </c>
       <c r="BE23">
         <v>0</v>
@@ -4597,45 +4604,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A24">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -4650,7 +4657,7 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4659,25 +4666,25 @@
         <v>0.2</v>
       </c>
       <c r="W24" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X24">
-        <v>332.67590824544448</v>
+        <v>367.1636511699885</v>
       </c>
       <c r="Y24">
         <v>30.989583333333329</v>
       </c>
       <c r="Z24">
-        <v>5107.8899845999986</v>
+        <v>952.24246058799326</v>
       </c>
       <c r="AA24" t="s">
         <v>107</v>
       </c>
       <c r="AB24">
-        <v>332.67590824544448</v>
+        <v>367.1636511699885</v>
       </c>
       <c r="AC24">
-        <v>314.67590824544448</v>
+        <v>349.1636511699885</v>
       </c>
       <c r="AD24">
         <v>18</v>
@@ -4698,19 +4705,19 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0.12981648179606989</v>
+        <v>0.14326973543104879</v>
       </c>
       <c r="AK24">
-        <v>0.12981648179606989</v>
+        <v>0.14326973543104879</v>
       </c>
       <c r="AL24">
-        <v>0.1227925386297218</v>
+        <v>0.13624601391193539</v>
       </c>
       <c r="AN24">
-        <v>91.828992401996771</v>
+        <v>139.57257172862259</v>
       </c>
       <c r="AO24">
-        <v>222.84691584344779</v>
+        <v>209.59107944136591</v>
       </c>
       <c r="AQ24">
         <v>80.736806722689082</v>
@@ -4719,28 +4726,28 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AS24">
-        <v>700.32644829360379</v>
+        <v>700.4073181272513</v>
       </c>
       <c r="AT24">
-        <v>2562.6631044280539</v>
+        <v>2562.7439742617021</v>
       </c>
       <c r="AU24">
         <v>998.29628226207092</v>
       </c>
       <c r="AV24">
-        <v>1719.1529643182689</v>
+        <v>1622.313148119435</v>
       </c>
       <c r="AW24">
-        <v>129.830956845787</v>
+        <v>30.20963343010941</v>
       </c>
       <c r="AX24">
-        <v>240.13681872103299</v>
+        <v>213.91914147437959</v>
       </c>
       <c r="AY24">
-        <v>17.289902877585259</v>
+        <v>4.3280620330137216</v>
       </c>
       <c r="AZ24">
-        <v>153.04832066999461</v>
+        <v>232.62095288103779</v>
       </c>
       <c r="BA24">
         <v>0</v>
@@ -4749,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>-28.83718794644312</v>
+        <v>-14.662973288702601</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>9.9019678789736503</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -4761,45 +4768,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -4814,7 +4821,7 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -4823,25 +4830,25 @@
         <v>0.2</v>
       </c>
       <c r="W25" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X25">
-        <v>367.74415475179188</v>
+        <v>367.7337178861884</v>
       </c>
       <c r="Y25">
         <v>30.989583333333329</v>
       </c>
       <c r="Z25">
-        <v>5645.8231989000014</v>
+        <v>952.60407716594636</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
       </c>
       <c r="AB25">
-        <v>367.74415475179188</v>
+        <v>367.7337178861884</v>
       </c>
       <c r="AC25">
-        <v>349.74415475179188</v>
+        <v>349.7337178861884</v>
       </c>
       <c r="AD25">
         <v>18</v>
@@ -4862,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.143496251847684</v>
+        <v>0.1434921793122656</v>
       </c>
       <c r="AK25">
-        <v>0.143496251847684</v>
+        <v>0.1434921793122656</v>
       </c>
       <c r="AL25">
-        <v>0.13647253032857071</v>
+        <v>0.13646845779315231</v>
       </c>
       <c r="AN25">
         <v>140.06394</v>
       </c>
       <c r="AO25">
-        <v>209.68021475179191</v>
+        <v>209.6697778861884</v>
       </c>
       <c r="AQ25">
         <v>80.736806722689082</v>
@@ -4883,34 +4890,34 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AS25">
-        <v>700.40731812725255</v>
+        <v>700.40731812725153</v>
       </c>
       <c r="AT25">
-        <v>2562.743974261703</v>
+        <v>2562.7439742617021</v>
       </c>
       <c r="AU25">
         <v>998.29628226207092</v>
       </c>
       <c r="AV25">
-        <v>1623.8462883911429</v>
+        <v>1624.0322174903899</v>
       </c>
       <c r="AW25">
-        <v>31.49586550171799</v>
+        <v>31.684292621008971</v>
       </c>
       <c r="AX25">
-        <v>214.45501570661409</v>
+        <v>214.464723935655</v>
       </c>
       <c r="AY25">
-        <v>4.7748009548221289</v>
+        <v>4.7949460494665734</v>
       </c>
       <c r="AZ25">
         <v>233.43989999999999</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>3.887460763107759E-17</v>
       </c>
       <c r="BC25">
         <v>-15.535600000000001</v>
@@ -4925,45 +4932,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A26">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -4978,10 +4985,10 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W26" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X26">
         <v>406.8163820868121</v>
@@ -4990,7 +4997,7 @@
         <v>30.989583333333329</v>
       </c>
       <c r="Z26">
-        <v>1253.9424770999999</v>
+        <v>168.6684129983187</v>
       </c>
       <c r="AA26" t="s">
         <v>109</v>
@@ -5083,45 +5090,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A27">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N27">
         <v>6</v>
@@ -5136,28 +5143,28 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W27" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X27">
-        <v>297.21468521134818</v>
+        <v>297.30681917140163</v>
       </c>
       <c r="Y27">
         <v>29.989583333333329</v>
       </c>
       <c r="Z27">
-        <v>2186.3430552999998</v>
+        <v>750.03006121516228</v>
       </c>
       <c r="AA27" t="s">
         <v>110</v>
       </c>
       <c r="AB27">
-        <v>297.21468521134818</v>
+        <v>297.30681917140163</v>
       </c>
       <c r="AC27">
-        <v>279.21468521134818</v>
+        <v>279.30681917140163</v>
       </c>
       <c r="AD27">
         <v>18</v>
@@ -5178,19 +5185,19 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.1336717336006554</v>
+        <v>0.13371317067216171</v>
       </c>
       <c r="AK27">
-        <v>0.1336717336006554</v>
+        <v>0.13371317067216171</v>
       </c>
       <c r="AL27">
-        <v>0.12557626818614931</v>
+        <v>0.1256177052576555</v>
       </c>
       <c r="AN27">
-        <v>93.478111652705309</v>
+        <v>93.597303696730734</v>
       </c>
       <c r="AO27">
-        <v>185.7365735586429</v>
+        <v>185.70951547467089</v>
       </c>
       <c r="AQ27">
         <v>62.555053838138242</v>
@@ -5199,34 +5206,34 @@
         <v>1678.1635523445659</v>
       </c>
       <c r="AS27">
-        <v>545.30342309900618</v>
+        <v>545.30342309900743</v>
       </c>
       <c r="AT27">
-        <v>2223.4669754435722</v>
+        <v>2223.466975443574</v>
       </c>
       <c r="AU27">
         <v>840.61483160614171</v>
       </c>
       <c r="AV27">
-        <v>1451.1404212638979</v>
+        <v>1451.182877523288</v>
       </c>
       <c r="AW27">
-        <v>43.518224749058589</v>
+        <v>43.548522409384162</v>
       </c>
       <c r="AX27">
-        <v>193.19955403336189</v>
+        <v>193.1778404566713</v>
       </c>
       <c r="AY27">
-        <v>7.4629804747189628</v>
+        <v>7.468324982000393</v>
       </c>
       <c r="AZ27">
-        <v>155.79685275450879</v>
+        <v>155.99550616121789</v>
       </c>
       <c r="BA27">
-        <v>7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="BB27">
-        <v>1.2047092897572361E-15</v>
+        <v>0</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -5241,45 +5248,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A28">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N28">
         <v>6</v>
@@ -5294,7 +5301,7 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5303,25 +5310,25 @@
         <v>0.2</v>
       </c>
       <c r="W28" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X28">
-        <v>307.32240572443152</v>
+        <v>341.355636814511</v>
       </c>
       <c r="Y28">
         <v>29.989583333333329</v>
       </c>
       <c r="Z28">
-        <v>4131.5442891999992</v>
+        <v>745.63113100454211</v>
       </c>
       <c r="AA28" t="s">
         <v>111</v>
       </c>
       <c r="AB28">
-        <v>307.32240572443152</v>
+        <v>341.355636814511</v>
       </c>
       <c r="AC28">
-        <v>289.32240572443152</v>
+        <v>323.355636814511</v>
       </c>
       <c r="AD28">
         <v>18</v>
@@ -5342,19 +5349,19 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0.13822007981723811</v>
+        <v>0.15352404177103279</v>
       </c>
       <c r="AK28">
-        <v>0.13822007981723811</v>
+        <v>0.15352404177103279</v>
       </c>
       <c r="AL28">
-        <v>0.13012447275973901</v>
+        <v>0.1454285763565267</v>
       </c>
       <c r="AN28">
-        <v>97.271936837800283</v>
+        <v>140.53185846</v>
       </c>
       <c r="AO28">
-        <v>192.05046888663119</v>
+        <v>182.82377835451101</v>
       </c>
       <c r="AQ28">
         <v>62.555053838138242</v>
@@ -5363,40 +5370,40 @@
         <v>1678.1635523445659</v>
       </c>
       <c r="AS28">
-        <v>545.26452070234177</v>
+        <v>545.30342309900607</v>
       </c>
       <c r="AT28">
-        <v>2223.4280730469081</v>
+        <v>2223.4669754435722</v>
       </c>
       <c r="AU28">
         <v>840.61483160614171</v>
       </c>
       <c r="AV28">
-        <v>1560.889704947868</v>
+        <v>1469.222608541447</v>
       </c>
       <c r="AW28">
-        <v>152.3801459083835</v>
+        <v>58.357305071733833</v>
       </c>
       <c r="AX28">
-        <v>212.23034800293061</v>
+        <v>191.76037551660721</v>
       </c>
       <c r="AY28">
-        <v>20.179879116299471</v>
+        <v>8.9365971620961382</v>
       </c>
       <c r="AZ28">
-        <v>162.11989472966721</v>
+        <v>234.21976409999999</v>
       </c>
       <c r="BA28">
-        <v>1.7763568394002501E-14</v>
+        <v>0</v>
       </c>
       <c r="BB28">
-        <v>3.0117732243930901E-15</v>
+        <v>0</v>
       </c>
       <c r="BC28">
-        <v>-27.845665319999991</v>
+        <v>-11.2707692</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>9.2829169999999976</v>
       </c>
       <c r="BE28">
         <v>0</v>
@@ -5405,45 +5412,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A29">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29">
         <v>6</v>
@@ -5458,7 +5465,7 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5467,25 +5474,25 @@
         <v>0.2</v>
       </c>
       <c r="W29" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X29">
-        <v>309.39549078572679</v>
+        <v>339.5772561735248</v>
       </c>
       <c r="Y29">
         <v>29.989583333333329</v>
       </c>
       <c r="Z29">
-        <v>4248.4540507999991</v>
+        <v>745.06020786613226</v>
       </c>
       <c r="AA29" t="s">
         <v>112</v>
       </c>
       <c r="AB29">
-        <v>309.39549078572679</v>
+        <v>339.5772561735248</v>
       </c>
       <c r="AC29">
-        <v>291.39549078572679</v>
+        <v>321.5772561735248</v>
       </c>
       <c r="AD29">
         <v>18</v>
@@ -5506,19 +5513,19 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.13915002750333341</v>
+        <v>0.15272421849475881</v>
       </c>
       <c r="AK29">
-        <v>0.13915002750333341</v>
+        <v>0.15272421849475881</v>
       </c>
       <c r="AL29">
-        <v>0.13105456208882729</v>
+        <v>0.14462875308025269</v>
       </c>
       <c r="AN29">
-        <v>99.799801220855827</v>
+        <v>138.37287431525149</v>
       </c>
       <c r="AO29">
-        <v>191.59568956487101</v>
+        <v>183.20438185827331</v>
       </c>
       <c r="AQ29">
         <v>62.555053838138242</v>
@@ -5527,28 +5534,28 @@
         <v>1678.1635523445659</v>
       </c>
       <c r="AS29">
-        <v>545.30342309900766</v>
+        <v>545.30342309900652</v>
       </c>
       <c r="AT29">
-        <v>2223.466975443574</v>
+        <v>2223.4669754435731</v>
       </c>
       <c r="AU29">
         <v>840.61483160614171</v>
       </c>
       <c r="AV29">
-        <v>1554.115482635937</v>
+        <v>1466.951278482866</v>
       </c>
       <c r="AW29">
-        <v>145.47215830709459</v>
+        <v>55.955776986056797</v>
       </c>
       <c r="AX29">
-        <v>210.935907849454</v>
+        <v>191.45073547070459</v>
       </c>
       <c r="AY29">
-        <v>19.340218284582981</v>
+        <v>8.2463536124312924</v>
       </c>
       <c r="AZ29">
-        <v>166.33300203475969</v>
+        <v>230.62145719208581</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -5557,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="BC29">
-        <v>-29.848076508665951</v>
+        <v>-12.671797090554961</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>9.8738014563410275</v>
       </c>
       <c r="BE29">
         <v>0</v>
@@ -5569,45 +5576,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A30">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N30">
         <v>6</v>
@@ -5622,7 +5629,7 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5631,25 +5638,25 @@
         <v>0.2</v>
       </c>
       <c r="W30" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X30">
-        <v>340.44908920037739</v>
+        <v>340.48254215723</v>
       </c>
       <c r="Y30">
         <v>29.989583333333329</v>
       </c>
       <c r="Z30">
-        <v>4809.1673934999999</v>
+        <v>738.10064189136028</v>
       </c>
       <c r="AA30" t="s">
         <v>113</v>
       </c>
       <c r="AB30">
-        <v>340.44908920037739</v>
+        <v>340.48254215723</v>
       </c>
       <c r="AC30">
-        <v>322.44908920037739</v>
+        <v>322.48254215723</v>
       </c>
       <c r="AD30">
         <v>18</v>
@@ -5670,19 +5677,19 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.15311632372343159</v>
+        <v>0.15313136912649891</v>
       </c>
       <c r="AK30">
-        <v>0.15311632372343159</v>
+        <v>0.15313136912649891</v>
       </c>
       <c r="AL30">
-        <v>0.1450208583089255</v>
+        <v>0.14503590371199279</v>
       </c>
       <c r="AN30">
-        <v>139.33429056925479</v>
+        <v>139.35708</v>
       </c>
       <c r="AO30">
-        <v>183.1147986311226</v>
+        <v>183.12546215723</v>
       </c>
       <c r="AQ30">
         <v>62.555053838138242</v>
@@ -5691,34 +5698,34 @@
         <v>1678.1635523445659</v>
       </c>
       <c r="AS30">
-        <v>545.30342309900664</v>
+        <v>545.3034230990072</v>
       </c>
       <c r="AT30">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443574</v>
       </c>
       <c r="AU30">
         <v>840.61483160614171</v>
       </c>
       <c r="AV30">
-        <v>1464.5957296121389</v>
+        <v>1464.729917824829</v>
       </c>
       <c r="AW30">
-        <v>54.141657600543397</v>
+        <v>54.268469245436208</v>
       </c>
       <c r="AX30">
-        <v>192.00526924912899</v>
+        <v>192.0328313136859</v>
       </c>
       <c r="AY30">
-        <v>8.8904706180063702</v>
+        <v>8.9073691564558537</v>
       </c>
       <c r="AZ30">
-        <v>232.22381761542479</v>
+        <v>232.26179999999999</v>
       </c>
       <c r="BA30">
-        <v>3.5527136788005009E-15</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="BB30">
-        <v>6.0235464487861794E-16</v>
+        <v>4.0170924562936658E-17</v>
       </c>
       <c r="BC30">
         <v>-15.8574</v>
@@ -5733,45 +5740,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A31">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N31">
         <v>6</v>
@@ -5786,25 +5793,25 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W31" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X31">
-        <v>373.16421286263619</v>
+        <v>385.95228674692248</v>
       </c>
       <c r="Y31">
         <v>29.989583333333329</v>
       </c>
       <c r="Z31">
-        <v>1093.9701879999991</v>
+        <v>157.85892725177109</v>
       </c>
       <c r="AA31" t="s">
         <v>114</v>
       </c>
       <c r="AB31">
-        <v>373.16421286263619</v>
+        <v>385.95228674692248</v>
       </c>
       <c r="AC31">
         <v>367.95228674692248</v>
@@ -5828,13 +5835,13 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.16783059642566139</v>
+        <v>0.17358203237036501</v>
       </c>
       <c r="AK31">
-        <v>0.16783059642566139</v>
+        <v>0.17358203237036501</v>
       </c>
       <c r="AL31">
-        <v>0.1597350968264703</v>
+        <v>0.16548653277117389</v>
       </c>
       <c r="AN31">
         <v>130.25024071374651</v>
@@ -5876,7 +5883,7 @@
         <v>78.026394616265151</v>
       </c>
       <c r="BB31">
-        <v>13.229200399877911</v>
+        <v>0.44112651559162191</v>
       </c>
       <c r="BC31">
         <v>0</v>
@@ -5891,45 +5898,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A32">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N32">
         <v>7</v>
@@ -5944,28 +5951,28 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W32" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X32">
-        <v>202.53961129249799</v>
+        <v>214.57331320790561</v>
       </c>
       <c r="Y32">
         <v>30.989583333333329</v>
       </c>
       <c r="Z32">
-        <v>2554.6622438999998</v>
+        <v>732.10601188242435</v>
       </c>
       <c r="AA32" t="s">
         <v>115</v>
       </c>
       <c r="AB32">
-        <v>202.53961129249799</v>
+        <v>214.57331320790561</v>
       </c>
       <c r="AC32">
-        <v>196.57370165601341</v>
+        <v>196.57331320790561</v>
       </c>
       <c r="AD32">
         <v>18</v>
@@ -5986,19 +5993,19 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>9.4323346789476806E-2</v>
+        <v>9.9927480379369965E-2</v>
       </c>
       <c r="AK32">
-        <v>9.4323346789476806E-2</v>
+        <v>9.9927480379369965E-2</v>
       </c>
       <c r="AL32">
-        <v>8.5940689039834581E-2</v>
+        <v>9.1544822629727726E-2</v>
       </c>
       <c r="AN32">
-        <v>64.250985475254623</v>
+        <v>64.250985475254723</v>
       </c>
       <c r="AO32">
-        <v>132.72399185804159</v>
+        <v>132.7236034099337</v>
       </c>
       <c r="AQ32">
         <v>58.697142857142858</v>
@@ -6007,34 +6014,34 @@
         <v>1588.5547861512621</v>
       </c>
       <c r="AS32">
-        <v>558.73555273538045</v>
+        <v>558.73555273538</v>
       </c>
       <c r="AT32">
-        <v>2147.290338886643</v>
+        <v>2147.2903388866421</v>
       </c>
       <c r="AU32">
         <v>1167.7102960988179</v>
       </c>
       <c r="AV32">
-        <v>1090.1242507198731</v>
+        <v>1090.124250719872</v>
       </c>
       <c r="AW32">
-        <v>84.674718499020031</v>
+        <v>84.676966982537678</v>
       </c>
       <c r="AX32">
-        <v>145.72469822482279</v>
+        <v>145.7246982248227</v>
       </c>
       <c r="AY32">
-        <v>13.00070636678111</v>
+        <v>13.00109481488893</v>
       </c>
       <c r="AZ32">
-        <v>107.0849757920911</v>
+        <v>107.0849757920912</v>
       </c>
       <c r="BA32">
-        <v>73.344410376156262</v>
+        <v>73.344410376154528</v>
       </c>
       <c r="BB32">
-        <v>12.4353660407983</v>
+        <v>0.40127567728289371</v>
       </c>
       <c r="BC32">
         <v>0</v>
@@ -6049,45 +6056,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A33">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N33">
         <v>7</v>
@@ -6102,7 +6109,7 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6111,25 +6118,25 @@
         <v>0.2</v>
       </c>
       <c r="W33" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X33">
-        <v>210.15124166635249</v>
+        <v>285.32671224707769</v>
       </c>
       <c r="Y33">
         <v>30.989583333333329</v>
       </c>
       <c r="Z33">
-        <v>4110.7298541000018</v>
+        <v>740.57719737291336</v>
       </c>
       <c r="AA33" t="s">
         <v>116</v>
       </c>
       <c r="AB33">
-        <v>210.15124166635249</v>
+        <v>285.32671224707769</v>
       </c>
       <c r="AC33">
-        <v>205.72238830503949</v>
+        <v>267.32671224707769</v>
       </c>
       <c r="AD33">
         <v>18</v>
@@ -6150,19 +6157,19 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>9.7871784452880556E-2</v>
+        <v>0.13288621888545041</v>
       </c>
       <c r="AK33">
-        <v>9.7871784452880556E-2</v>
+        <v>0.13288621888545041</v>
       </c>
       <c r="AL33">
-        <v>8.948881176053354E-2</v>
+        <v>0.12450301522007889</v>
       </c>
       <c r="AN33">
-        <v>67.110395414018797</v>
+        <v>140.01063329999999</v>
       </c>
       <c r="AO33">
-        <v>139.0645215736584</v>
+        <v>127.3160789470777</v>
       </c>
       <c r="AQ33">
         <v>58.697142857142858</v>
@@ -6171,40 +6178,40 @@
         <v>1588.5547861512621</v>
       </c>
       <c r="AS33">
-        <v>558.65488046647306</v>
+        <v>558.59572080260693</v>
       </c>
       <c r="AT33">
-        <v>2147.2096666177349</v>
+        <v>2147.1505069538689</v>
       </c>
       <c r="AU33">
         <v>1167.7102960988179</v>
       </c>
       <c r="AV33">
-        <v>1164.904009893484</v>
+        <v>1122.665317176901</v>
       </c>
       <c r="AW33">
-        <v>158.66376557603041</v>
+        <v>115.6720442027358</v>
       </c>
       <c r="AX33">
-        <v>159.68913238745651</v>
+        <v>144.87472021382851</v>
       </c>
       <c r="AY33">
-        <v>20.624610813798149</v>
+        <v>17.558641266750762</v>
       </c>
       <c r="AZ33">
-        <v>111.8506590233647</v>
+        <v>233.3510555</v>
       </c>
       <c r="BA33">
-        <v>82.712337889748653</v>
+        <v>0</v>
       </c>
       <c r="BB33">
-        <v>14.02367532132471</v>
+        <v>0</v>
       </c>
       <c r="BC33">
-        <v>-25.415676399999999</v>
+        <v>-11.5378943</v>
       </c>
       <c r="BD33">
-        <v>0</v>
+        <v>8.4215313999999921</v>
       </c>
       <c r="BE33">
         <v>0</v>
@@ -6213,45 +6220,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A34">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N34">
         <v>7</v>
@@ -6266,7 +6273,7 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6275,25 +6282,25 @@
         <v>0.2</v>
       </c>
       <c r="W34" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X34">
-        <v>219.8693996391064</v>
+        <v>285.97894409999788</v>
       </c>
       <c r="Y34">
         <v>30.989583333333329</v>
       </c>
       <c r="Z34">
-        <v>4188.8297478999993</v>
+        <v>737.39259895123541</v>
       </c>
       <c r="AA34" t="s">
         <v>117</v>
       </c>
       <c r="AB34">
-        <v>219.8693996391064</v>
+        <v>285.97894409999788</v>
       </c>
       <c r="AC34">
-        <v>208.39907796417279</v>
+        <v>267.97894409999788</v>
       </c>
       <c r="AD34">
         <v>18</v>
@@ -6314,19 +6321,19 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.10239388482188561</v>
+        <v>0.1331899851332323</v>
       </c>
       <c r="AK34">
-        <v>0.10239388482188561</v>
+        <v>0.1331899851332323</v>
       </c>
       <c r="AL34">
-        <v>9.4011227072243339E-2</v>
+        <v>0.1248067814678607</v>
       </c>
       <c r="AN34">
-        <v>71.764124966733235</v>
+        <v>139.34801676457391</v>
       </c>
       <c r="AO34">
-        <v>136.85268454283951</v>
+        <v>128.63092733542399</v>
       </c>
       <c r="AQ34">
         <v>58.697142857142858</v>
@@ -6335,40 +6342,40 @@
         <v>1588.5547861512621</v>
       </c>
       <c r="AS34">
-        <v>558.73555273537954</v>
+        <v>558.59572080260659</v>
       </c>
       <c r="AT34">
-        <v>2147.2903388866421</v>
+        <v>2147.150506953868</v>
       </c>
       <c r="AU34">
         <v>1167.7102960988179</v>
       </c>
       <c r="AV34">
-        <v>1166.75263618074</v>
+        <v>1109.589141821883</v>
       </c>
       <c r="AW34">
-        <v>161.08378211362651</v>
+        <v>103.8895290514407</v>
       </c>
       <c r="AX34">
-        <v>157.85817196021759</v>
+        <v>144.38391323567851</v>
       </c>
       <c r="AY34">
-        <v>21.005487417378131</v>
+        <v>15.75298590025449</v>
       </c>
       <c r="AZ34">
-        <v>119.6068749445554</v>
+        <v>232.24669460762311</v>
       </c>
       <c r="BA34">
-        <v>39.796560623304259</v>
+        <v>0</v>
       </c>
       <c r="BB34">
-        <v>6.7474098704663117</v>
+        <v>0</v>
       </c>
       <c r="BC34">
-        <v>-25.891317123667289</v>
+        <v>-14.06128093638941</v>
       </c>
       <c r="BD34">
-        <v>0</v>
+        <v>10.83538828276266</v>
       </c>
       <c r="BE34">
         <v>0</v>
@@ -6377,45 +6384,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N35">
         <v>7</v>
@@ -6430,7 +6437,7 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6439,25 +6446,25 @@
         <v>0.2</v>
       </c>
       <c r="W35" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X35">
-        <v>282.81752248528051</v>
+        <v>282.85005060471019</v>
       </c>
       <c r="Y35">
         <v>30.989583333333329</v>
       </c>
       <c r="Z35">
-        <v>4043.3237511000011</v>
+        <v>730.41912086121738</v>
       </c>
       <c r="AA35" t="s">
         <v>118</v>
       </c>
       <c r="AB35">
-        <v>282.81752248528051</v>
+        <v>282.85005060471019</v>
       </c>
       <c r="AC35">
-        <v>264.81752248528051</v>
+        <v>264.85005060471019</v>
       </c>
       <c r="AD35">
         <v>18</v>
@@ -6478,19 +6485,19 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.13171760506277211</v>
+        <v>0.1317327544988848</v>
       </c>
       <c r="AK35">
-        <v>0.13171760506277211</v>
+        <v>0.1317327544988848</v>
       </c>
       <c r="AL35">
-        <v>0.1233344013974005</v>
+        <v>0.1233495508335133</v>
       </c>
       <c r="AN35">
         <v>136.46814000000001</v>
       </c>
       <c r="AO35">
-        <v>128.3493824852805</v>
+        <v>128.38191060471021</v>
       </c>
       <c r="AQ35">
         <v>58.697142857142858</v>
@@ -6499,25 +6506,25 @@
         <v>1588.5547861512621</v>
       </c>
       <c r="AS35">
-        <v>558.59572080260716</v>
+        <v>558.59572080260796</v>
       </c>
       <c r="AT35">
-        <v>2147.1505069538689</v>
+        <v>2147.1505069538698</v>
       </c>
       <c r="AU35">
         <v>1167.7102960988179</v>
       </c>
       <c r="AV35">
-        <v>1117.579072035054</v>
+        <v>1117.2219510960811</v>
       </c>
       <c r="AW35">
-        <v>111.82550013049151</v>
+        <v>111.46641182328941</v>
       </c>
       <c r="AX35">
-        <v>145.41700313165859</v>
+        <v>145.3900849861306</v>
       </c>
       <c r="AY35">
-        <v>17.067620646378149</v>
+        <v>17.0081743814204</v>
       </c>
       <c r="AZ35">
         <v>227.4469</v>
@@ -6541,45 +6548,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A36">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N36">
         <v>7</v>
@@ -6594,10 +6601,10 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W36" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X36">
         <v>281.70780807850832</v>
@@ -6606,7 +6613,7 @@
         <v>30.989583333333329</v>
       </c>
       <c r="Z36">
-        <v>1075.263535400001</v>
+        <v>164.74084861949089</v>
       </c>
       <c r="AA36" t="s">
         <v>119</v>
@@ -6699,45 +6706,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A37">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N37">
         <v>8</v>
@@ -6752,28 +6759,28 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W37" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X37">
-        <v>220.75413559265471</v>
+        <v>221.0539808272764</v>
       </c>
       <c r="Y37">
         <v>30.989583333333329</v>
       </c>
       <c r="Z37">
-        <v>1811.116419000002</v>
+        <v>691.1396650839597</v>
       </c>
       <c r="AA37" t="s">
         <v>120</v>
       </c>
       <c r="AB37">
-        <v>220.75413559265471</v>
+        <v>221.0539808272764</v>
       </c>
       <c r="AC37">
-        <v>202.75413559265471</v>
+        <v>203.0539808272764</v>
       </c>
       <c r="AD37">
         <v>18</v>
@@ -6794,19 +6801,19 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.1028677307206189</v>
+        <v>0.10300745357912899</v>
       </c>
       <c r="AK37">
-        <v>0.1028677307206189</v>
+        <v>0.10300745357912899</v>
       </c>
       <c r="AL37">
-        <v>9.4480032125527455E-2</v>
+        <v>9.461975498403756E-2</v>
       </c>
       <c r="AN37">
-        <v>63.165990017745258</v>
+        <v>63.590838772692287</v>
       </c>
       <c r="AO37">
-        <v>139.5881455749095</v>
+        <v>139.4631420545841</v>
       </c>
       <c r="AQ37">
         <v>54.598991596638648</v>
@@ -6815,34 +6822,34 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AS37">
-        <v>530.29512056251144</v>
+        <v>530.29512056251053</v>
       </c>
       <c r="AT37">
-        <v>2145.9998587137738</v>
+        <v>2145.9998587137729</v>
       </c>
       <c r="AU37">
         <v>1110.7847480302451</v>
       </c>
       <c r="AV37">
-        <v>1125.6777851479569</v>
+        <v>1125.9938689269759</v>
       </c>
       <c r="AW37">
-        <v>65.792806170250671</v>
+        <v>66.079264913080678</v>
       </c>
       <c r="AX37">
-        <v>150.44500015983391</v>
+        <v>150.3679498330583</v>
       </c>
       <c r="AY37">
-        <v>10.85685458492444</v>
+        <v>10.904807778474179</v>
       </c>
       <c r="AZ37">
-        <v>105.27665002957541</v>
+        <v>105.98473128782049</v>
       </c>
       <c r="BA37">
         <v>2.1316282072803009E-14</v>
       </c>
       <c r="BB37">
-        <v>3.6141236782017448E-15</v>
+        <v>1.166238228932328E-16</v>
       </c>
       <c r="BC37">
         <v>0</v>
@@ -6857,45 +6864,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A38">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N38">
         <v>8</v>
@@ -6910,7 +6917,7 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6919,25 +6926,25 @@
         <v>0.2</v>
       </c>
       <c r="W38" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X38">
-        <v>233.09455352550589</v>
+        <v>291.60498603846139</v>
       </c>
       <c r="Y38">
         <v>30.989583333333329</v>
       </c>
       <c r="Z38">
-        <v>3921.1716729</v>
+        <v>678.11448253504932</v>
       </c>
       <c r="AA38" t="s">
         <v>121</v>
       </c>
       <c r="AB38">
-        <v>233.09455352550589</v>
+        <v>291.60498603846139</v>
       </c>
       <c r="AC38">
-        <v>215.09455352550589</v>
+        <v>273.60498603846139</v>
       </c>
       <c r="AD38">
         <v>18</v>
@@ -6958,19 +6965,19 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0.1086181588405199</v>
+        <v>0.135883040650915</v>
       </c>
       <c r="AK38">
-        <v>0.1086181588405199</v>
+        <v>0.135883040650915</v>
       </c>
       <c r="AL38">
-        <v>0.10023046024542839</v>
+        <v>0.1274953420558235</v>
       </c>
       <c r="AN38">
-        <v>69.557127901445568</v>
+        <v>137.57704680000001</v>
       </c>
       <c r="AO38">
-        <v>145.53742562406029</v>
+        <v>136.02793923846141</v>
       </c>
       <c r="AQ38">
         <v>54.598991596638648</v>
@@ -6979,7 +6986,7 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AS38">
-        <v>530.29512056251076</v>
+        <v>530.29512056251099</v>
       </c>
       <c r="AT38">
         <v>2145.9998587137729</v>
@@ -6988,19 +6995,19 @@
         <v>1110.7847480302451</v>
       </c>
       <c r="AV38">
-        <v>1221.0273896434419</v>
+        <v>1140.1263738554669</v>
       </c>
       <c r="AW38">
-        <v>160.12609076457201</v>
+        <v>78.334503613789025</v>
       </c>
       <c r="AX38">
-        <v>166.39089505677521</v>
+        <v>148.2576854790729</v>
       </c>
       <c r="AY38">
-        <v>20.853469432714849</v>
+        <v>12.229746240611471</v>
       </c>
       <c r="AZ38">
-        <v>115.9285465024093</v>
+        <v>229.29507799999999</v>
       </c>
       <c r="BA38">
         <v>0</v>
@@ -7009,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="BC38">
-        <v>-24.87323168</v>
+        <v>-8.9287703999999977</v>
       </c>
       <c r="BD38">
-        <v>0</v>
+        <v>7.4296906999999948</v>
       </c>
       <c r="BE38">
         <v>0</v>
@@ -7021,45 +7028,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A39">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N39">
         <v>8</v>
@@ -7074,7 +7081,7 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -7083,25 +7090,25 @@
         <v>0.2</v>
       </c>
       <c r="W39" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X39">
-        <v>231.31593211653919</v>
+        <v>291.67286969983428</v>
       </c>
       <c r="Y39">
         <v>30.989583333333329</v>
       </c>
       <c r="Z39">
-        <v>4970.1415237000001</v>
+        <v>686.44405576400459</v>
       </c>
       <c r="AA39" t="s">
         <v>122</v>
       </c>
       <c r="AB39">
-        <v>231.31593211653919</v>
+        <v>291.67286969983428</v>
       </c>
       <c r="AC39">
-        <v>213.31593211653919</v>
+        <v>273.67286969983428</v>
       </c>
       <c r="AD39">
         <v>18</v>
@@ -7122,19 +7129,19 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.1077893510464539</v>
+        <v>0.13591467330042209</v>
       </c>
       <c r="AK39">
-        <v>0.1077893510464539</v>
+        <v>0.13591467330042209</v>
       </c>
       <c r="AL39">
-        <v>9.9401652451362399E-2</v>
+        <v>0.12752697470533059</v>
       </c>
       <c r="AN39">
-        <v>67.671557191016646</v>
+        <v>138.12958329365699</v>
       </c>
       <c r="AO39">
-        <v>145.64437492552261</v>
+        <v>135.5432864061774</v>
       </c>
       <c r="AQ39">
         <v>54.598991596638648</v>
@@ -7143,40 +7150,40 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AS39">
-        <v>530.29512056251019</v>
+        <v>530.29512056251053</v>
       </c>
       <c r="AT39">
-        <v>2145.999858713772</v>
+        <v>2145.9998587137729</v>
       </c>
       <c r="AU39">
         <v>1110.7847480302451</v>
       </c>
       <c r="AV39">
-        <v>1206.300407758401</v>
+        <v>1143.6984347468781</v>
       </c>
       <c r="AW39">
-        <v>145.92524123812359</v>
+        <v>80.981578434554777</v>
       </c>
       <c r="AX39">
-        <v>164.91972122006649</v>
+        <v>148.4249710770392</v>
       </c>
       <c r="AY39">
-        <v>19.275346294543962</v>
+        <v>12.88168467086178</v>
       </c>
       <c r="AZ39">
-        <v>112.78592865169441</v>
+        <v>230.21597215609489</v>
       </c>
       <c r="BA39">
-        <v>0</v>
+        <v>1.06581410364015E-14</v>
       </c>
       <c r="BB39">
-        <v>0</v>
+        <v>5.8311911446616388E-17</v>
       </c>
       <c r="BC39">
-        <v>-22.057470271082199</v>
+        <v>-9.0130585592351622</v>
       </c>
       <c r="BD39">
-        <v>0</v>
+        <v>11.605235898302711</v>
       </c>
       <c r="BE39">
         <v>0</v>
@@ -7185,45 +7192,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A40">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N40">
         <v>8</v>
@@ -7238,7 +7245,7 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -7247,25 +7254,25 @@
         <v>0.2</v>
       </c>
       <c r="W40" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X40">
-        <v>292.84780223687108</v>
+        <v>292.84837339136658</v>
       </c>
       <c r="Y40">
         <v>30.989583333333329</v>
       </c>
       <c r="Z40">
-        <v>3977.8744252999968</v>
+        <v>680.65723451785743</v>
       </c>
       <c r="AA40" t="s">
         <v>123</v>
       </c>
       <c r="AB40">
-        <v>292.84780223687108</v>
+        <v>292.84837339136658</v>
       </c>
       <c r="AC40">
-        <v>274.84780223687108</v>
+        <v>274.84837339136658</v>
       </c>
       <c r="AD40">
         <v>18</v>
@@ -7286,19 +7293,19 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0.13646217218876819</v>
+        <v>0.13646243833719929</v>
       </c>
       <c r="AK40">
-        <v>0.13646217218876819</v>
+        <v>0.13646243833719929</v>
       </c>
       <c r="AL40">
-        <v>0.12807447359367671</v>
+        <v>0.12807473974210781</v>
       </c>
       <c r="AN40">
         <v>138.82607999999999</v>
       </c>
       <c r="AO40">
-        <v>136.02172223687111</v>
+        <v>136.02229339136659</v>
       </c>
       <c r="AQ40">
         <v>54.598991596638648</v>
@@ -7307,7 +7314,7 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AS40">
-        <v>530.29512056251053</v>
+        <v>530.29512056251087</v>
       </c>
       <c r="AT40">
         <v>2145.9998587137729</v>
@@ -7316,16 +7323,16 @@
         <v>1110.7847480302451</v>
       </c>
       <c r="AV40">
-        <v>1146.7093523057849</v>
+        <v>1146.9612871349191</v>
       </c>
       <c r="AW40">
-        <v>84.373261700889117</v>
+        <v>84.611508862286243</v>
       </c>
       <c r="AX40">
-        <v>149.2372466431591</v>
+        <v>149.2804137026549</v>
       </c>
       <c r="AY40">
-        <v>13.215524406287949</v>
+        <v>13.25812031128824</v>
       </c>
       <c r="AZ40">
         <v>231.3768</v>
@@ -7349,45 +7356,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A41">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N41">
         <v>8</v>
@@ -7402,10 +7409,10 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W41" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X41">
         <v>284.9565950485669</v>
@@ -7414,7 +7421,7 @@
         <v>30.989583333333329</v>
       </c>
       <c r="Z41">
-        <v>1110.6656666999991</v>
+        <v>164.09351974353191</v>
       </c>
       <c r="AA41" t="s">
         <v>124</v>
@@ -7507,45 +7514,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A42">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N42">
         <v>9</v>
@@ -7560,28 +7567,28 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W42" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X42">
-        <v>279.78056417459919</v>
+        <v>279.79026783852947</v>
       </c>
       <c r="Y42">
         <v>29.989583333333329</v>
       </c>
       <c r="Z42">
-        <v>1710.4224827</v>
+        <v>769.40648589655757</v>
       </c>
       <c r="AA42" t="s">
         <v>125</v>
       </c>
       <c r="AB42">
-        <v>279.78056417459919</v>
+        <v>279.79026783852947</v>
       </c>
       <c r="AC42">
-        <v>261.78056417459919</v>
+        <v>261.79026783852947</v>
       </c>
       <c r="AD42">
         <v>18</v>
@@ -7602,19 +7609,19 @@
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.1251435510887563</v>
+        <v>0.1251478914580253</v>
       </c>
       <c r="AK42">
-        <v>0.1251435510887563</v>
+        <v>0.1251478914580253</v>
       </c>
       <c r="AL42">
-        <v>0.11709229875733319</v>
+        <v>0.1170966391266022</v>
       </c>
       <c r="AN42">
-        <v>88.535727655731179</v>
+        <v>88.540846855767981</v>
       </c>
       <c r="AO42">
-        <v>173.244836518868</v>
+        <v>173.24942098276159</v>
       </c>
       <c r="AQ42">
         <v>64.355679055227512</v>
@@ -7623,7 +7630,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AS42">
-        <v>594.76649346782744</v>
+        <v>594.76649346782835</v>
       </c>
       <c r="AT42">
         <v>2235.677042408432</v>
@@ -7632,19 +7639,19 @@
         <v>987.63184197713986</v>
       </c>
       <c r="AV42">
-        <v>1285.963841919325</v>
+        <v>1285.9589207860431</v>
       </c>
       <c r="AW42">
-        <v>14.40124258357981</v>
+        <v>14.401313194679521</v>
       </c>
       <c r="AX42">
-        <v>175.77392740592731</v>
+        <v>175.77852432561889</v>
       </c>
       <c r="AY42">
-        <v>2.5290908870593198</v>
+        <v>2.5291033428573071</v>
       </c>
       <c r="AZ42">
-        <v>147.55954609288531</v>
+        <v>147.56807809294659</v>
       </c>
       <c r="BA42">
         <v>0</v>
@@ -7665,45 +7672,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A43">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N43">
         <v>9</v>
@@ -7718,7 +7725,7 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -7727,25 +7734,25 @@
         <v>0.2</v>
       </c>
       <c r="W43" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X43">
-        <v>286.818280084886</v>
+        <v>325.19214333109358</v>
       </c>
       <c r="Y43">
         <v>29.989583333333329</v>
       </c>
       <c r="Z43">
-        <v>4244.405410899999</v>
+        <v>780.10235341824591</v>
       </c>
       <c r="AA43" t="s">
         <v>126</v>
       </c>
       <c r="AB43">
-        <v>286.818280084886</v>
+        <v>325.19214333109358</v>
       </c>
       <c r="AC43">
-        <v>268.818280084886</v>
+        <v>307.19214333109358</v>
       </c>
       <c r="AD43">
         <v>18</v>
@@ -7766,19 +7773,19 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.1282914636793446</v>
+        <v>0.14545577789749689</v>
       </c>
       <c r="AK43">
-        <v>0.1282914636793446</v>
+        <v>0.14545577789749689</v>
       </c>
       <c r="AL43">
-        <v>0.1202402113479215</v>
+        <v>0.1374045255660738</v>
       </c>
       <c r="AN43">
-        <v>90.099252527017583</v>
+        <v>141.45871944000001</v>
       </c>
       <c r="AO43">
-        <v>178.7190275578684</v>
+        <v>165.73342389109359</v>
       </c>
       <c r="AQ43">
         <v>64.355679055227512</v>
@@ -7787,7 +7794,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AS43">
-        <v>594.76649346782847</v>
+        <v>594.7664934678279</v>
       </c>
       <c r="AT43">
         <v>2235.677042408432</v>
@@ -7796,31 +7803,31 @@
         <v>987.63184197713986</v>
       </c>
       <c r="AV43">
-        <v>1395.3214025402581</v>
+        <v>1314.6740361981281</v>
       </c>
       <c r="AW43">
-        <v>123.0997267965212</v>
+        <v>39.409132560977618</v>
       </c>
       <c r="AX43">
-        <v>195.10068877358441</v>
+        <v>171.26484934890411</v>
       </c>
       <c r="AY43">
-        <v>16.38166121571594</v>
+        <v>5.5314254578104656</v>
       </c>
       <c r="AZ43">
-        <v>150.1654208783626</v>
+        <v>235.76453240000001</v>
       </c>
       <c r="BA43">
-        <v>0</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="BB43">
-        <v>0</v>
+        <v>2.0085462281468329E-17</v>
       </c>
       <c r="BC43">
-        <v>-28.479755480000001</v>
+        <v>-15.257862899999999</v>
       </c>
       <c r="BD43">
-        <v>0</v>
+        <v>13.17740139999999</v>
       </c>
       <c r="BE43">
         <v>0</v>
@@ -7829,45 +7836,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A44">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N44">
         <v>9</v>
@@ -7882,7 +7889,7 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -7891,25 +7898,25 @@
         <v>0.2</v>
       </c>
       <c r="W44" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X44">
-        <v>284.58967272755359</v>
+        <v>323.82909105750639</v>
       </c>
       <c r="Y44">
         <v>29.989583333333329</v>
       </c>
       <c r="Z44">
-        <v>5401.4458785999959</v>
+        <v>777.21880835108459</v>
       </c>
       <c r="AA44" t="s">
         <v>127</v>
       </c>
       <c r="AB44">
-        <v>284.58967272755359</v>
+        <v>323.82909105750639</v>
       </c>
       <c r="AC44">
-        <v>266.58967272755359</v>
+        <v>305.82909105750639</v>
       </c>
       <c r="AD44">
         <v>18</v>
@@ -7930,19 +7937,19 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0.1272946258914808</v>
+        <v>0.14484609579774291</v>
       </c>
       <c r="AK44">
-        <v>0.1272946258914808</v>
+        <v>0.14484609579774291</v>
       </c>
       <c r="AL44">
-        <v>0.11924337356005769</v>
+        <v>0.13679484346631979</v>
       </c>
       <c r="AN44">
-        <v>87.546224712967771</v>
+        <v>139.83381672513039</v>
       </c>
       <c r="AO44">
-        <v>179.04344801458581</v>
+        <v>165.995274332376</v>
       </c>
       <c r="AQ44">
         <v>64.355679055227512</v>
@@ -7951,7 +7958,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AS44">
-        <v>594.7664934678279</v>
+        <v>594.76649346782847</v>
       </c>
       <c r="AT44">
         <v>2235.677042408432</v>
@@ -7960,31 +7967,31 @@
         <v>987.63184197713986</v>
       </c>
       <c r="AV44">
-        <v>1376.6254256990951</v>
+        <v>1305.539515896126</v>
       </c>
       <c r="AW44">
-        <v>104.9147459169224</v>
+        <v>30.317613009911309</v>
       </c>
       <c r="AX44">
-        <v>193.15189603430181</v>
+        <v>170.72439199491981</v>
       </c>
       <c r="AY44">
-        <v>14.108448019715951</v>
+        <v>4.7291176625437519</v>
       </c>
       <c r="AZ44">
-        <v>145.91037452161299</v>
+        <v>233.05636120855061</v>
       </c>
       <c r="BA44">
-        <v>7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="BB44">
-        <v>1.2047092897572361E-15</v>
+        <v>0</v>
       </c>
       <c r="BC44">
-        <v>-24.207380024306961</v>
+        <v>-11.5999000202558</v>
       </c>
       <c r="BD44">
-        <v>2.196171463545511</v>
+        <v>15.29257621962125</v>
       </c>
       <c r="BE44">
         <v>0</v>
@@ -7993,45 +8000,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A45">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N45">
         <v>9</v>
@@ -8046,7 +8053,7 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -8055,25 +8062,25 @@
         <v>0.2</v>
       </c>
       <c r="W45" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X45">
-        <v>323.20271256485648</v>
+        <v>323.18856332175721</v>
       </c>
       <c r="Y45">
         <v>29.989583333333329</v>
       </c>
       <c r="Z45">
-        <v>4725.6232165000038</v>
+        <v>769.20500729978085</v>
       </c>
       <c r="AA45" t="s">
         <v>128</v>
       </c>
       <c r="AB45">
-        <v>323.20271256485648</v>
+        <v>323.18856332175721</v>
       </c>
       <c r="AC45">
-        <v>305.20271256485648</v>
+        <v>305.18856332175721</v>
       </c>
       <c r="AD45">
         <v>18</v>
@@ -8094,19 +8101,19 @@
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0.14456592183667069</v>
+        <v>0.1445595929963101</v>
       </c>
       <c r="AK45">
-        <v>0.14456592183667069</v>
+        <v>0.1445595929963101</v>
       </c>
       <c r="AL45">
-        <v>0.1365146695052476</v>
+        <v>0.13650834066488701</v>
       </c>
       <c r="AN45">
         <v>138.90072000000001</v>
       </c>
       <c r="AO45">
-        <v>166.3019925648565</v>
+        <v>166.28784332175721</v>
       </c>
       <c r="AQ45">
         <v>64.355679055227512</v>
@@ -8115,7 +8122,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AS45">
-        <v>594.76649346782779</v>
+        <v>594.76649346782733</v>
       </c>
       <c r="AT45">
         <v>2235.677042408432</v>
@@ -8124,16 +8131,16 @@
         <v>987.63184197713986</v>
       </c>
       <c r="AV45">
-        <v>1306.3243557272619</v>
+        <v>1305.9564047866429</v>
       </c>
       <c r="AW45">
-        <v>31.605906870271699</v>
+        <v>31.23113437672696</v>
       </c>
       <c r="AX45">
-        <v>171.35856688431531</v>
+        <v>171.25232265065929</v>
       </c>
       <c r="AY45">
-        <v>5.0565743194588499</v>
+        <v>4.9644793289020583</v>
       </c>
       <c r="AZ45">
         <v>231.50120000000001</v>
@@ -8157,45 +8164,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A46">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N46">
         <v>9</v>
@@ -8210,10 +8217,10 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W46" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X46">
         <v>348.35314674999722</v>
@@ -8222,7 +8229,7 @@
         <v>29.989583333333329</v>
       </c>
       <c r="Z46">
-        <v>1057.642980299999</v>
+        <v>159.20413121208551</v>
       </c>
       <c r="AA46" t="s">
         <v>129</v>
@@ -8315,45 +8322,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A47">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H47">
         <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N47">
         <v>10</v>
@@ -8368,28 +8375,28 @@
         <v>0.6</v>
       </c>
       <c r="R47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W47" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X47">
-        <v>339.92288814915571</v>
+        <v>350.04765631888188</v>
       </c>
       <c r="Y47">
         <v>30.989583333333329</v>
       </c>
       <c r="Z47">
-        <v>3285.0991413999982</v>
+        <v>1042.2700652331109</v>
       </c>
       <c r="AA47" t="s">
         <v>130</v>
       </c>
       <c r="AB47">
-        <v>339.92288814915571</v>
+        <v>350.04765631888188</v>
       </c>
       <c r="AC47">
-        <v>331.9320408889962</v>
+        <v>332.04765631888188</v>
       </c>
       <c r="AD47">
         <v>18</v>
@@ -8410,19 +8417,19 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0.12621066616733331</v>
+        <v>0.12996991210234149</v>
       </c>
       <c r="AK47">
-        <v>0.12621066616733331</v>
+        <v>0.12996991210234149</v>
       </c>
       <c r="AL47">
-        <v>0.11952740925756281</v>
+        <v>0.123286655192571</v>
       </c>
       <c r="AN47">
-        <v>80.867059908839408</v>
+        <v>80.998479908838874</v>
       </c>
       <c r="AO47">
-        <v>251.39873529173181</v>
+        <v>251.38410511096501</v>
       </c>
       <c r="AQ47">
         <v>91.740504201680679</v>
@@ -8440,25 +8447,25 @@
         <v>932.82719817364341</v>
       </c>
       <c r="AV47">
-        <v>1787.0906863443061</v>
+        <v>1787.102232574186</v>
       </c>
       <c r="AW47">
-        <v>8.7477364287843254E-15</v>
+        <v>1.39254434314261E-14</v>
       </c>
       <c r="AX47">
-        <v>251.39873529173181</v>
+        <v>251.38410511096501</v>
       </c>
       <c r="AY47">
-        <v>1.217665565017334E-15</v>
+        <v>1.757692613306567E-15</v>
       </c>
       <c r="AZ47">
-        <v>134.77843318139901</v>
+        <v>134.99746651473151</v>
       </c>
       <c r="BA47">
-        <v>61.002982684437697</v>
+        <v>61.217635351103503</v>
       </c>
       <c r="BB47">
-        <v>10.34290705141556</v>
+        <v>0.33492870092194238</v>
       </c>
       <c r="BC47">
         <v>0</v>
@@ -8473,45 +8480,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A48">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48">
         <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N48">
         <v>10</v>
@@ -8526,7 +8533,7 @@
         <v>0.6</v>
       </c>
       <c r="R48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -8535,25 +8542,25 @@
         <v>0.2</v>
       </c>
       <c r="W48" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X48">
-        <v>372.65702976825332</v>
+        <v>410.53047661439888</v>
       </c>
       <c r="Y48">
         <v>30.989583333333329</v>
       </c>
       <c r="Z48">
-        <v>5902.7474887000062</v>
+        <v>1047.4660251419989</v>
       </c>
       <c r="AA48" t="s">
         <v>131</v>
       </c>
       <c r="AB48">
-        <v>372.65702976825332</v>
+        <v>410.53047661439888</v>
       </c>
       <c r="AC48">
-        <v>354.65702976825332</v>
+        <v>392.53047661439888</v>
       </c>
       <c r="AD48">
         <v>18</v>
@@ -8574,19 +8581,19 @@
         <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0.1383645927318467</v>
+        <v>0.15242670247247611</v>
       </c>
       <c r="AK48">
-        <v>0.1383645927318467</v>
+        <v>0.15242670247247611</v>
       </c>
       <c r="AL48">
-        <v>0.1316813358220762</v>
+        <v>0.1457434455627056</v>
       </c>
       <c r="AN48">
-        <v>99.249367740971181</v>
+        <v>150.2487429</v>
       </c>
       <c r="AO48">
-        <v>255.4076620272821</v>
+        <v>242.28173371439891</v>
       </c>
       <c r="AQ48">
         <v>91.740504201680679</v>
@@ -8595,7 +8602,7 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AS48">
-        <v>832.03490310409961</v>
+        <v>832.03490310409916</v>
       </c>
       <c r="AT48">
         <v>2693.2976306335099</v>
@@ -8604,19 +8611,19 @@
         <v>932.82719817364341</v>
       </c>
       <c r="AV48">
-        <v>1893.9521542130019</v>
+        <v>1800.165361450694</v>
       </c>
       <c r="AW48">
-        <v>107.2262433458657</v>
+        <v>11.531484857397301</v>
       </c>
       <c r="AX48">
-        <v>270.12456764833809</v>
+        <v>243.63426315312239</v>
       </c>
       <c r="AY48">
-        <v>14.71690562105595</v>
+        <v>1.3525294387234139</v>
       </c>
       <c r="AZ48">
-        <v>165.41561290161869</v>
+        <v>250.41457149999999</v>
       </c>
       <c r="BA48">
         <v>0</v>
@@ -8625,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="BC48">
-        <v>-25.839203520000002</v>
+        <v>-8.4512329000000008</v>
       </c>
       <c r="BD48">
-        <v>10.1081258</v>
+        <v>25.231371499999991</v>
       </c>
       <c r="BE48">
         <v>0</v>
@@ -8637,45 +8644,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A49">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H49">
         <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -8690,7 +8697,7 @@
         <v>0.6</v>
       </c>
       <c r="R49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -8699,25 +8706,25 @@
         <v>0.2</v>
       </c>
       <c r="W49" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X49">
-        <v>353.70871911554889</v>
+        <v>401.07034665746733</v>
       </c>
       <c r="Y49">
         <v>30.989583333333329</v>
       </c>
       <c r="Z49">
-        <v>6866.2845919999963</v>
+        <v>1056.451055662706</v>
       </c>
       <c r="AA49" t="s">
         <v>132</v>
       </c>
       <c r="AB49">
-        <v>353.70871911554889</v>
+        <v>401.07034665746733</v>
       </c>
       <c r="AC49">
-        <v>343.39634056487631</v>
+        <v>383.07034665746733</v>
       </c>
       <c r="AD49">
         <v>18</v>
@@ -8738,19 +8745,19 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0.13132923561528201</v>
+        <v>0.14891423142236559</v>
       </c>
       <c r="AK49">
-        <v>0.13132923561528201</v>
+        <v>0.14891423142236559</v>
       </c>
       <c r="AL49">
-        <v>0.1246459787055114</v>
+        <v>0.14223097451259509</v>
       </c>
       <c r="AN49">
-        <v>83.778560641555742</v>
+        <v>141.2750678370916</v>
       </c>
       <c r="AO49">
-        <v>259.87412297963709</v>
+        <v>241.7952788203757</v>
       </c>
       <c r="AQ49">
         <v>91.740504201680679</v>
@@ -8759,40 +8766,40 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AS49">
-        <v>832.03490310409916</v>
+        <v>832.03490310409848</v>
       </c>
       <c r="AT49">
-        <v>2693.2976306335099</v>
+        <v>2693.297630633509</v>
       </c>
       <c r="AU49">
         <v>932.82719817364341</v>
       </c>
       <c r="AV49">
-        <v>1870.9917509072491</v>
+        <v>1792.635717733589</v>
       </c>
       <c r="AW49">
-        <v>84.611852905874741</v>
+        <v>3.8154528615119041</v>
       </c>
       <c r="AX49">
-        <v>271.92322194868149</v>
+        <v>242.32999762492969</v>
       </c>
       <c r="AY49">
-        <v>12.049098969044399</v>
+        <v>0.53471880455393006</v>
       </c>
       <c r="AZ49">
-        <v>139.63093440259291</v>
+        <v>235.45844639515261</v>
       </c>
       <c r="BA49">
-        <v>46.853899660372782</v>
+        <v>0</v>
       </c>
       <c r="BB49">
-        <v>7.9439645056439687</v>
+        <v>0</v>
       </c>
       <c r="BC49">
-        <v>-28.126639634182851</v>
+        <v>-12.71181636181905</v>
       </c>
       <c r="BD49">
-        <v>0</v>
+        <v>11.866892987178799</v>
       </c>
       <c r="BE49">
         <v>0</v>
@@ -8801,45 +8808,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A50">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H50">
         <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N50">
         <v>10</v>
@@ -8854,7 +8861,7 @@
         <v>0.6</v>
       </c>
       <c r="R50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -8863,25 +8870,25 @@
         <v>0.2</v>
       </c>
       <c r="W50" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X50">
-        <v>402.25716595594582</v>
+        <v>402.22646334828369</v>
       </c>
       <c r="Y50">
         <v>30.989583333333329</v>
       </c>
       <c r="Z50">
-        <v>5594.6284382000013</v>
+        <v>1038.729226937518</v>
       </c>
       <c r="AA50" t="s">
         <v>133</v>
       </c>
       <c r="AB50">
-        <v>402.25716595594582</v>
+        <v>402.22646334828369</v>
       </c>
       <c r="AC50">
-        <v>384.25716595594582</v>
+        <v>384.22646334828369</v>
       </c>
       <c r="AD50">
         <v>18</v>
@@ -8902,19 +8909,19 @@
         <v>0</v>
       </c>
       <c r="AJ50">
-        <v>0.14935488799332139</v>
+        <v>0.1493434883591655</v>
       </c>
       <c r="AK50">
-        <v>0.14935488799332139</v>
+        <v>0.1493434883591655</v>
       </c>
       <c r="AL50">
-        <v>0.14267163108355091</v>
+        <v>0.14266023144939499</v>
       </c>
       <c r="AN50">
         <v>141.89225999999999</v>
       </c>
       <c r="AO50">
-        <v>242.3649059559458</v>
+        <v>242.33420334828369</v>
       </c>
       <c r="AQ50">
         <v>91.740504201680679</v>
@@ -8923,25 +8930,25 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AS50">
-        <v>832.03490310409848</v>
+        <v>832.03490310409916</v>
       </c>
       <c r="AT50">
-        <v>2693.297630633509</v>
+        <v>2693.2976306335099</v>
       </c>
       <c r="AU50">
         <v>932.82719817364341</v>
       </c>
       <c r="AV50">
-        <v>1796.704694321495</v>
+        <v>1796.6777695423009</v>
       </c>
       <c r="AW50">
-        <v>8.000269529938155</v>
+        <v>7.9563908660382481</v>
       </c>
       <c r="AX50">
-        <v>243.4699211638094</v>
+        <v>243.43143862821691</v>
       </c>
       <c r="AY50">
-        <v>1.105015207863612</v>
+        <v>1.0972352799332481</v>
       </c>
       <c r="AZ50">
         <v>236.4871</v>
@@ -8965,45 +8972,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A51">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H51">
         <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N51">
         <v>10</v>
@@ -9018,10 +9025,10 @@
         <v>0.6</v>
       </c>
       <c r="R51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W51" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X51">
         <v>440.35346651424072</v>
@@ -9030,7 +9037,7 @@
         <v>30.989583333333329</v>
       </c>
       <c r="Z51">
-        <v>1201.0981967000009</v>
+        <v>174.17850901186469</v>
       </c>
       <c r="AA51" t="s">
         <v>134</v>
@@ -9123,45 +9130,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A52">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H52">
         <v>438</v>
       </c>
       <c r="I52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N52">
         <v>11</v>
@@ -9176,28 +9183,28 @@
         <v>0.6</v>
       </c>
       <c r="R52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W52" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X52">
-        <v>387.03680133019441</v>
+        <v>387.03713225150369</v>
       </c>
       <c r="Y52">
         <v>29.989583333333329</v>
       </c>
       <c r="Z52">
-        <v>2938.1032984999979</v>
+        <v>885.17815819941461</v>
       </c>
       <c r="AA52" t="s">
         <v>135</v>
       </c>
       <c r="AB52">
-        <v>387.03680133019441</v>
+        <v>387.03713225150369</v>
       </c>
       <c r="AC52">
-        <v>369.03680133019441</v>
+        <v>369.03713225150369</v>
       </c>
       <c r="AD52">
         <v>18</v>
@@ -9218,19 +9225,19 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0.15385287051789481</v>
+        <v>0.15385300206402469</v>
       </c>
       <c r="AK52">
-        <v>0.15385287051789481</v>
+        <v>0.15385300206402469</v>
       </c>
       <c r="AL52">
-        <v>0.14669760347402661</v>
+        <v>0.14669773502015651</v>
       </c>
       <c r="AN52">
-        <v>101.0670155130131</v>
+        <v>101.06701551301261</v>
       </c>
       <c r="AO52">
-        <v>267.96978581718128</v>
+        <v>267.97011673849107</v>
       </c>
       <c r="AQ52">
         <v>79.360889197638073</v>
@@ -9239,7 +9246,7 @@
         <v>1761.1962906564811</v>
       </c>
       <c r="AS52">
-        <v>754.43308972077841</v>
+        <v>754.43308972077818</v>
       </c>
       <c r="AT52">
         <v>2515.6293803772592</v>
@@ -9248,19 +9255,19 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AV52">
-        <v>1914.615875829375</v>
+        <v>1914.6158758293741</v>
       </c>
       <c r="AW52">
-        <v>0.96866258355037727</v>
+        <v>0.9686625835503746</v>
       </c>
       <c r="AX52">
-        <v>268.14065789691961</v>
+        <v>268.14098881822929</v>
       </c>
       <c r="AY52">
-        <v>0.17087207973828611</v>
+        <v>0.1708720797382858</v>
       </c>
       <c r="AZ52">
-        <v>168.44502585502181</v>
+        <v>168.4450258550211</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -9281,45 +9288,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A53">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H53">
         <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N53">
         <v>11</v>
@@ -9334,7 +9341,7 @@
         <v>0.6</v>
       </c>
       <c r="R53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -9343,25 +9350,25 @@
         <v>0.2</v>
       </c>
       <c r="W53" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X53">
-        <v>399.66739067806918</v>
+        <v>425.22646112642042</v>
       </c>
       <c r="Y53">
         <v>29.989583333333329</v>
       </c>
       <c r="Z53">
-        <v>5022.3980107000016</v>
+        <v>889.39702268503606</v>
       </c>
       <c r="AA53" t="s">
         <v>136</v>
       </c>
       <c r="AB53">
-        <v>399.66739067806918</v>
+        <v>425.22646112642042</v>
       </c>
       <c r="AC53">
-        <v>381.66739067806918</v>
+        <v>407.22646112642042</v>
       </c>
       <c r="AD53">
         <v>18</v>
@@ -9382,19 +9389,19 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0.1588737171681992</v>
+        <v>0.16903382685992099</v>
       </c>
       <c r="AK53">
-        <v>0.1588737171681992</v>
+        <v>0.16903382685992099</v>
       </c>
       <c r="AL53">
-        <v>0.15171845012433099</v>
+        <v>0.16187855981605281</v>
       </c>
       <c r="AN53">
-        <v>105.9429138448867</v>
+        <v>144.61966206</v>
       </c>
       <c r="AO53">
-        <v>275.72447683318251</v>
+        <v>262.60679906642042</v>
       </c>
       <c r="AQ53">
         <v>79.360889197638073</v>
@@ -9403,7 +9410,7 @@
         <v>1761.1962906564811</v>
       </c>
       <c r="AS53">
-        <v>754.43308972077966</v>
+        <v>754.43308972078023</v>
       </c>
       <c r="AT53">
         <v>2515.629380377261</v>
@@ -9412,19 +9419,19 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AV53">
-        <v>2015.126679729834</v>
+        <v>1938.3150823606809</v>
       </c>
       <c r="AW53">
-        <v>101.4003913822478</v>
+        <v>21.76151659788011</v>
       </c>
       <c r="AX53">
-        <v>289.98813471756608</v>
+        <v>265.23234497569513</v>
       </c>
       <c r="AY53">
-        <v>14.263657884383599</v>
+        <v>2.625545909274686</v>
       </c>
       <c r="AZ53">
-        <v>176.5715230748111</v>
+        <v>241.03277009999999</v>
       </c>
       <c r="BA53">
         <v>0</v>
@@ -9433,10 +9440,10 @@
         <v>0</v>
       </c>
       <c r="BC53">
-        <v>-75.22509024</v>
+        <v>-62.687575199999998</v>
       </c>
       <c r="BD53">
-        <v>0</v>
+        <v>15.84957010000001</v>
       </c>
       <c r="BE53">
         <v>0</v>
@@ -9445,45 +9452,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A54">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <v>438</v>
       </c>
       <c r="I54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N54">
         <v>11</v>
@@ -9498,7 +9505,7 @@
         <v>0.6</v>
       </c>
       <c r="R54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -9507,25 +9514,25 @@
         <v>0.2</v>
       </c>
       <c r="W54" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X54">
-        <v>399.45083889998187</v>
+        <v>422.32366943590267</v>
       </c>
       <c r="Y54">
         <v>29.989583333333329</v>
       </c>
       <c r="Z54">
-        <v>6067.824125799998</v>
+        <v>892.7025441788137</v>
       </c>
       <c r="AA54" t="s">
         <v>137</v>
       </c>
       <c r="AB54">
-        <v>399.45083889998187</v>
+        <v>422.32366943590267</v>
       </c>
       <c r="AC54">
-        <v>381.45083889998187</v>
+        <v>404.32366943590267</v>
       </c>
       <c r="AD54">
         <v>18</v>
@@ -9546,19 +9553,19 @@
         <v>0</v>
       </c>
       <c r="AJ54">
-        <v>0.1587876346236971</v>
+        <v>0.1678799240977891</v>
       </c>
       <c r="AK54">
-        <v>0.1587876346236971</v>
+        <v>0.1678799240977891</v>
       </c>
       <c r="AL54">
-        <v>0.1516323675798289</v>
+        <v>0.16072465705392089</v>
       </c>
       <c r="AN54">
-        <v>106.7017763124087</v>
+        <v>142.43027985652489</v>
       </c>
       <c r="AO54">
-        <v>274.74906258757318</v>
+        <v>261.89338957937792</v>
       </c>
       <c r="AQ54">
         <v>79.360889197638073</v>
@@ -9567,28 +9574,28 @@
         <v>1761.1962906564811</v>
       </c>
       <c r="AS54">
-        <v>754.43308972077909</v>
+        <v>754.43308972077944</v>
       </c>
       <c r="AT54">
-        <v>2515.6293803772601</v>
+        <v>2515.629380377261</v>
       </c>
       <c r="AU54">
         <v>626.1831707214252</v>
       </c>
       <c r="AV54">
-        <v>2011.079985214418</v>
+        <v>1930.973650315847</v>
       </c>
       <c r="AW54">
-        <v>96.911849394000683</v>
+        <v>14.007330291531069</v>
       </c>
       <c r="AX54">
-        <v>288.61137515306552</v>
+        <v>263.74325610179062</v>
       </c>
       <c r="AY54">
-        <v>13.86231256549234</v>
+        <v>1.849866522412734</v>
       </c>
       <c r="AZ54">
-        <v>177.83629385401451</v>
+        <v>237.38379976087481</v>
       </c>
       <c r="BA54">
         <v>0</v>
@@ -9597,10 +9604,10 @@
         <v>0</v>
       </c>
       <c r="BC54">
-        <v>-73.365702439408039</v>
+        <v>-61.138085366173371</v>
       </c>
       <c r="BD54">
-        <v>51.035477379564313</v>
+        <v>52.160114482970258</v>
       </c>
       <c r="BE54">
         <v>0</v>
@@ -9609,45 +9616,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A55">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H55">
         <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N55">
         <v>11</v>
@@ -9662,7 +9669,7 @@
         <v>0.6</v>
       </c>
       <c r="R55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -9671,25 +9678,25 @@
         <v>0.2</v>
       </c>
       <c r="W55" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X55">
-        <v>427.35455729897018</v>
+        <v>427.32739133562029</v>
       </c>
       <c r="Y55">
         <v>29.989583333333329</v>
       </c>
       <c r="Z55">
-        <v>5114.3374764999971</v>
+        <v>884.23287051916122</v>
       </c>
       <c r="AA55" t="s">
         <v>138</v>
       </c>
       <c r="AB55">
-        <v>427.35455729897018</v>
+        <v>427.32739133562029</v>
       </c>
       <c r="AC55">
-        <v>409.35455729897018</v>
+        <v>409.32739133562029</v>
       </c>
       <c r="AD55">
         <v>18</v>
@@ -9710,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0.16987977666045601</v>
+        <v>0.16986897778699639</v>
       </c>
       <c r="AK55">
-        <v>0.16987977666045601</v>
+        <v>0.16986897778699639</v>
       </c>
       <c r="AL55">
-        <v>0.16272450961658769</v>
+        <v>0.16271371074312821</v>
       </c>
       <c r="AN55">
         <v>146.81682000000001</v>
       </c>
       <c r="AO55">
-        <v>262.53773729897023</v>
+        <v>262.51057133562028</v>
       </c>
       <c r="AQ55">
         <v>79.360889197638073</v>
@@ -9731,7 +9738,7 @@
         <v>1761.1962906564811</v>
       </c>
       <c r="AS55">
-        <v>754.43308972077944</v>
+        <v>754.43308972077978</v>
       </c>
       <c r="AT55">
         <v>2515.629380377261</v>
@@ -9740,16 +9747,16 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AV55">
-        <v>1926.8404803599651</v>
+        <v>1926.8837150939589</v>
       </c>
       <c r="AW55">
-        <v>10.07609869028907</v>
+        <v>10.11833919046275</v>
       </c>
       <c r="AX55">
-        <v>264.02786015662741</v>
+        <v>264.0050830066711</v>
       </c>
       <c r="AY55">
-        <v>1.4901228576572629</v>
+        <v>1.4945116710508031</v>
       </c>
       <c r="AZ55">
         <v>244.69470000000001</v>
@@ -9773,45 +9780,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A56">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H56">
         <v>438</v>
       </c>
       <c r="I56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N56">
         <v>11</v>
@@ -9826,10 +9833,10 @@
         <v>0.6</v>
       </c>
       <c r="R56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W56" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X56">
         <v>480.19913313597908</v>
@@ -9838,7 +9845,7 @@
         <v>29.989583333333329</v>
       </c>
       <c r="Z56">
-        <v>1168.2907023000009</v>
+        <v>165.372763549909</v>
       </c>
       <c r="AA56" t="s">
         <v>139</v>
@@ -9931,45 +9938,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A57">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H57">
         <v>438</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N57">
         <v>12</v>
@@ -9984,28 +9991,28 @@
         <v>0.6</v>
       </c>
       <c r="R57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W57" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X57">
-        <v>342.98858519566897</v>
+        <v>342.98822793901752</v>
       </c>
       <c r="Y57">
         <v>29.989583333333329</v>
       </c>
       <c r="Z57">
-        <v>2489.2486114999988</v>
+        <v>704.5203564632684</v>
       </c>
       <c r="AA57" t="s">
         <v>140</v>
       </c>
       <c r="AB57">
-        <v>342.98858519566897</v>
+        <v>342.98822793901752</v>
       </c>
       <c r="AC57">
-        <v>324.98858519566897</v>
+        <v>324.98822793901752</v>
       </c>
       <c r="AD57">
         <v>18</v>
@@ -10026,19 +10033,19 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0.1661983658436185</v>
+        <v>0.166198192731526</v>
       </c>
       <c r="AK57">
-        <v>0.1661983658436185</v>
+        <v>0.166198192731526</v>
       </c>
       <c r="AL57">
-        <v>0.1574762954473734</v>
+        <v>0.15747612233528091</v>
       </c>
       <c r="AN57">
         <v>107.5353426017096</v>
       </c>
       <c r="AO57">
-        <v>217.4532425939594</v>
+        <v>217.45288533730781</v>
       </c>
       <c r="AQ57">
         <v>58.687044112539077</v>
@@ -10047,7 +10054,7 @@
         <v>1514.0381460229221</v>
       </c>
       <c r="AS57">
-        <v>549.69204443152739</v>
+        <v>549.69204443152728</v>
       </c>
       <c r="AT57">
         <v>2063.7301904544502</v>
@@ -10056,13 +10063,13 @@
         <v>475.35458871625258</v>
       </c>
       <c r="AV57">
-        <v>1630.5412117385611</v>
+        <v>1630.541211738562</v>
       </c>
       <c r="AW57">
-        <v>16.223009328049312</v>
+        <v>16.223009328049319</v>
       </c>
       <c r="AX57">
-        <v>220.3149814394273</v>
+        <v>220.3146241827757</v>
       </c>
       <c r="AY57">
         <v>2.8617388454678991</v>
@@ -10089,45 +10096,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A58">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>438</v>
       </c>
       <c r="I58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N58">
         <v>12</v>
@@ -10142,7 +10149,7 @@
         <v>0.6</v>
       </c>
       <c r="R58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -10151,25 +10158,25 @@
         <v>0.2</v>
       </c>
       <c r="W58" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X58">
-        <v>355.99550449100991</v>
+        <v>379.36724388162992</v>
       </c>
       <c r="Y58">
         <v>29.989583333333329</v>
       </c>
       <c r="Z58">
-        <v>4404.8259079999989</v>
+        <v>704.03770953416824</v>
       </c>
       <c r="AA58" t="s">
         <v>141</v>
       </c>
       <c r="AB58">
-        <v>355.99550449100991</v>
+        <v>379.36724388162992</v>
       </c>
       <c r="AC58">
-        <v>337.99550449100991</v>
+        <v>361.36724388162992</v>
       </c>
       <c r="AD58">
         <v>18</v>
@@ -10190,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="AJ58">
-        <v>0.17250099171763189</v>
+        <v>0.1838259892869476</v>
       </c>
       <c r="AK58">
-        <v>0.17250099171763189</v>
+        <v>0.1838259892869476</v>
       </c>
       <c r="AL58">
-        <v>0.1637789213213868</v>
+        <v>0.17510391889070251</v>
       </c>
       <c r="AN58">
-        <v>116.2346536668209</v>
+        <v>145.80285172134811</v>
       </c>
       <c r="AO58">
-        <v>221.76085082418891</v>
+        <v>215.56439216028181</v>
       </c>
       <c r="AQ58">
         <v>58.687044112539077</v>
@@ -10211,28 +10218,28 @@
         <v>1514.0381460229221</v>
       </c>
       <c r="AS58">
-        <v>549.69204443152739</v>
+        <v>549.69204443152705</v>
       </c>
       <c r="AT58">
-        <v>2063.7301904544502</v>
+        <v>2063.7301904544488</v>
       </c>
       <c r="AU58">
         <v>475.35458871625258</v>
       </c>
       <c r="AV58">
-        <v>1721.1347652775839</v>
+        <v>1647.424916097789</v>
       </c>
       <c r="AW58">
-        <v>106.0476633904817</v>
+        <v>31.418898129114709</v>
       </c>
       <c r="AX58">
-        <v>235.8537913833371</v>
+        <v>219.98902616576831</v>
       </c>
       <c r="AY58">
-        <v>14.092940559148159</v>
+        <v>4.4246340054864932</v>
       </c>
       <c r="AZ58">
-        <v>193.72442277803489</v>
+        <v>243.00475286891341</v>
       </c>
       <c r="BA58">
         <v>0</v>
@@ -10241,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>-25.377718359999989</v>
+        <v>-14.24341029999999</v>
       </c>
       <c r="BD58">
-        <v>8.6514631600000058</v>
+        <v>23.7079193</v>
       </c>
       <c r="BE58">
         <v>0</v>
@@ -10253,45 +10260,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A59">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59">
         <v>438</v>
       </c>
       <c r="I59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N59">
         <v>12</v>
@@ -10306,7 +10313,7 @@
         <v>0.6</v>
       </c>
       <c r="R59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -10315,25 +10322,25 @@
         <v>0.2</v>
       </c>
       <c r="W59" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X59">
-        <v>353.92818899212432</v>
+        <v>374.89466011569459</v>
       </c>
       <c r="Y59">
         <v>29.989583333333329</v>
       </c>
       <c r="Z59">
-        <v>3042.963564899997</v>
+        <v>713.55137078650296</v>
       </c>
       <c r="AA59" t="s">
         <v>142</v>
       </c>
       <c r="AB59">
-        <v>353.92818899212432</v>
+        <v>374.89466011569459</v>
       </c>
       <c r="AC59">
-        <v>335.92818899212432</v>
+        <v>356.89466011569459</v>
       </c>
       <c r="AD59">
         <v>18</v>
@@ -10354,19 +10361,19 @@
         <v>0</v>
       </c>
       <c r="AJ59">
-        <v>0.17149925442249139</v>
+        <v>0.18165875648363691</v>
       </c>
       <c r="AK59">
-        <v>0.17149925442249139</v>
+        <v>0.18165875648363691</v>
       </c>
       <c r="AL59">
-        <v>0.1627771840262463</v>
+        <v>0.17293668608739179</v>
       </c>
       <c r="AN59">
-        <v>112.61194714947089</v>
+        <v>140.34791906616121</v>
       </c>
       <c r="AO59">
-        <v>223.31624184265331</v>
+        <v>216.54674104953341</v>
       </c>
       <c r="AQ59">
         <v>58.687044112539077</v>
@@ -10384,19 +10391,19 @@
         <v>475.35458871625258</v>
       </c>
       <c r="AV59">
-        <v>1735.4151596921081</v>
+        <v>1653.737551065831</v>
       </c>
       <c r="AW59">
-        <v>120.46018103824591</v>
+        <v>37.762621168864428</v>
       </c>
       <c r="AX59">
-        <v>239.46107704545341</v>
+        <v>221.5069723129908</v>
       </c>
       <c r="AY59">
-        <v>16.144835202800049</v>
+        <v>4.9602312634573584</v>
       </c>
       <c r="AZ59">
-        <v>187.68657858245149</v>
+        <v>233.913198443602</v>
       </c>
       <c r="BA59">
         <v>0</v>
@@ -10405,10 +10412,10 @@
         <v>0</v>
       </c>
       <c r="BC59">
-        <v>-28.73101224496234</v>
+        <v>-16.594576870801941</v>
       </c>
       <c r="BD59">
-        <v>0</v>
+        <v>11.74345269436844</v>
       </c>
       <c r="BE59">
         <v>0</v>
@@ -10417,45 +10424,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A60">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H60">
         <v>438</v>
       </c>
       <c r="I60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N60">
         <v>12</v>
@@ -10470,7 +10477,7 @@
         <v>0.6</v>
       </c>
       <c r="R60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -10479,25 +10486,25 @@
         <v>0.2</v>
       </c>
       <c r="W60" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X60">
-        <v>374.01516262504077</v>
+        <v>374.04350509987353</v>
       </c>
       <c r="Y60">
         <v>29.989583333333329</v>
       </c>
       <c r="Z60">
-        <v>2598.2694860999982</v>
+        <v>708.38326179422438</v>
       </c>
       <c r="AA60" t="s">
         <v>143</v>
       </c>
       <c r="AB60">
-        <v>374.01516262504077</v>
+        <v>374.04350509987353</v>
       </c>
       <c r="AC60">
-        <v>356.01516262504077</v>
+        <v>356.04350509987353</v>
       </c>
       <c r="AD60">
         <v>18</v>
@@ -10518,19 +10525,19 @@
         <v>0</v>
       </c>
       <c r="AJ60">
-        <v>0.18123258764881461</v>
+        <v>0.18124632126329759</v>
       </c>
       <c r="AK60">
-        <v>0.18123258764881461</v>
+        <v>0.18124632126329759</v>
       </c>
       <c r="AL60">
-        <v>0.1725105172525695</v>
+        <v>0.1725242508670525</v>
       </c>
       <c r="AN60">
         <v>140.37245999999999</v>
       </c>
       <c r="AO60">
-        <v>215.6427026250409</v>
+        <v>215.67104509987351</v>
       </c>
       <c r="AQ60">
         <v>58.687044112539077</v>
@@ -10548,16 +10555,16 @@
         <v>475.35458871625258</v>
       </c>
       <c r="AV60">
-        <v>1639.0467552299381</v>
+        <v>1639.0678165843201</v>
       </c>
       <c r="AW60">
-        <v>23.461479623913839</v>
+        <v>23.482540978297521</v>
       </c>
       <c r="AX60">
-        <v>219.5237999148064</v>
+        <v>219.5560134475387</v>
       </c>
       <c r="AY60">
-        <v>3.8810972897655169</v>
+        <v>3.8849683476652168</v>
       </c>
       <c r="AZ60">
         <v>233.95410000000001</v>
@@ -10581,45 +10588,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.45">
-      <c r="A61">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H61">
         <v>438</v>
       </c>
       <c r="I61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N61">
         <v>12</v>
@@ -10634,10 +10641,10 @@
         <v>0.6</v>
       </c>
       <c r="R61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W61" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="X61">
         <v>418.68469369432239</v>
@@ -10646,7 +10653,7 @@
         <v>29.989583333333329</v>
       </c>
       <c r="Z61">
-        <v>325.9900791</v>
+        <v>162.09079639241099</v>
       </c>
       <c r="AA61" t="s">
         <v>144</v>
@@ -10740,6 +10747,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>